--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_13_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_13_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>717183.9949588184</v>
+        <v>653283.8537704055</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6910317.319286314</v>
+        <v>6910317.319286315</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>16.08595173150723</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>49.94128079690852</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>124.1242832441619</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>157.9796123095633</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>31.83111019180203</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.145094685459</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.6612060961061</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>48.13515719198531</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.75051575329435</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>53.42289117565551</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.986262210732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>125.2358901574395</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.32567777239204</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.030682817957725</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>172.0348812231127</v>
       </c>
       <c r="X13" t="n">
-        <v>153.6687247303576</v>
+        <v>197.622120845902</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,52 +1618,52 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>197.622120845902</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>9.170483847616794</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>197.622120845902</v>
       </c>
-      <c r="I14" t="n">
-        <v>124.1242832441619</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>164.8950801934536</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>49.94128079690864</v>
+        <v>197.622120845902</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.357065052754769</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="W15" t="n">
-        <v>197.622120845902</v>
+        <v>176.3534397757199</v>
       </c>
       <c r="X15" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.986262210732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.6081718142876</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2.030682817957711</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>189.8250218870774</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>197.622120845902</v>
+        <v>174.0655640410704</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>197.622120845902</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="H17" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>124.1242832441619</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="W17" t="n">
-        <v>49.94128079690864</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,22 +1928,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.145094685459</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.13515719198531</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>25.75051575329435</v>
       </c>
       <c r="S18" t="n">
-        <v>129.6135243029225</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>17.62548777923904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
     </row>
     <row r="19">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.1531879311106</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,28 +2046,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.030682817957725</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>132.1176548984743</v>
       </c>
       <c r="S19" t="n">
-        <v>197.622120845902</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>39.91722632463824</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.915467883890286</v>
       </c>
       <c r="G20" t="n">
-        <v>49.94128079690861</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>124.1242832441619</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>9.170483847616822</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>157.9796123095633</v>
       </c>
       <c r="T20" t="n">
-        <v>197.622120845902</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>26.09354667651549</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.75051575329435</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>149.4229992034958</v>
       </c>
       <c r="T21" t="n">
         <v>195.3342451112527</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>176.3534397757197</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>144.3456292439422</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>125.2358901574395</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>197.622120845902</v>
+        <v>174.0655640410704</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>80.8208549922291</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>9.170483847616822</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>157.9796123095633</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.2909301245844</v>
       </c>
       <c r="U23" t="n">
         <v>240.3718616686394</v>
       </c>
       <c r="V23" t="n">
-        <v>240.3718616686394</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>240.3718616686394</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>44.5694396005573</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>145.6844227310847</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>44.19247942350236</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>240.3718616686394</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>44.83788645722868</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.030682817957725</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.90088924883565</v>
+        <v>132.1176548984743</v>
       </c>
       <c r="S25" t="n">
-        <v>206.5071182897707</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>223.6527070698127</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>240.3718616686394</v>
-      </c>
-      <c r="V25" t="n">
-        <v>240.3718616686394</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,14 +2554,14 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>53.73992344817414</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>240.3718616686394</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -2572,52 +2572,52 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>157.9796123095633</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>240.3718616686394</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>9.170483847616822</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>202.5490519101205</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>22.45647521151459</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.75051575329435</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8625384969122</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2699,10 +2699,10 @@
         <v>240.3718616686394</v>
       </c>
       <c r="X27" t="n">
-        <v>38.46588833742601</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>100.2399084950247</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,22 +2721,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.986262210732</v>
       </c>
       <c r="H28" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>125.2358901574395</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>22.32567777239204</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>74.09343876972792</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>206.5071182897707</v>
       </c>
       <c r="T28" t="n">
-        <v>223.6527070698127</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>240.3718616686394</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>240.3718616686394</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>9.170483847616822</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>202.5490519101205</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>211.7195357577374</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.276632491906789</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.75051575329435</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8625384969122</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>240.3718616686394</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>156.4269838739952</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>44.47271465910966</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>7.797088685244808</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="V31" t="n">
         <v>240.3718616686394</v>
@@ -3015,10 +3015,10 @@
         <v>240.3718616686394</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,14 +3040,14 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>202.5490519101205</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>240.3718616686394</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>9.170483847616822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.7195357577374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="V32" t="n">
-        <v>240.3718616686394</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>87.87087927815594</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.75051575329435</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.8625384969122</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>240.3718616686394</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>88.73092105529479</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.986262210732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.806547263701636</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.030682817957725</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>147.612662914415</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,17 +3265,17 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>174.0655640410704</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>197.6221208459019</v>
       </c>
-      <c r="D35" t="n">
-        <v>197.6221208459019</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>9.170483847616822</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>164.8950801934536</v>
       </c>
       <c r="Y35" t="n">
         <v>197.6221208459019</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>18.70835932031861</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>7.532380391202991</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U36" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>197.6221208459019</v>
@@ -3426,28 +3426,28 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>6.18085699540754</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.986262210732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>22.32567777239204</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>3.124413250465957</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,58 +3511,58 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6.915467883890284</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>9.170483847616822</v>
+      </c>
+      <c r="S38" t="n">
+        <v>157.9796123095633</v>
+      </c>
+      <c r="T38" t="n">
         <v>197.6221208459019</v>
-      </c>
-      <c r="F38" t="n">
-        <v>197.6221208459019</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>197.6221208459019</v>
       </c>
       <c r="V38" t="n">
-        <v>174.0655640410704</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>149.4229992034958</v>
       </c>
       <c r="T39" t="n">
         <v>195.3342451112527</v>
@@ -3644,13 +3644,13 @@
         <v>197.6221208459019</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>26.93044057222377</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.820256125852152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>35.42391875965473</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.986262210732</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2.030682817957725</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>197.6221208459019</v>
       </c>
       <c r="U40" t="n">
-        <v>174.0655640410704</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>197.6221208459019</v>
       </c>
       <c r="F41" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>16.08595173150712</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>9.170483847616822</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>157.9796123095633</v>
       </c>
       <c r="T41" t="n">
-        <v>6.915467883890308</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>71.29728228629499</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.145094685459</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.75051575329435</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3878,10 +3878,10 @@
         <v>197.6221208459019</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>14.45782933696604</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>51.40709899131666</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.986262210732</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>22.32567777239204</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.030682817957725</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>132.1176548984743</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>197.6221208459019</v>
       </c>
       <c r="V43" t="n">
-        <v>17.59154855224618</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,73 +3979,73 @@
         <v>197.6221208459019</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>164.8950801934536</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>9.170483847616822</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>197.6221208459019</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="Y44" t="n">
         <v>197.6221208459019</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>174.0655640410704</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>32.44600224878921</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.145094685459</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>132.7382939332794</v>
       </c>
       <c r="W45" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.986262210732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>125.2358901574395</v>
@@ -4182,10 +4182,10 @@
         <v>2.030682817957725</v>
       </c>
       <c r="R46" t="n">
-        <v>132.1176548984743</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>41.84606478631752</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>150.1882220879765</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>790.4884833836076</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="C11" t="n">
-        <v>790.4884833836076</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="D11" t="n">
-        <v>790.4884833836076</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="E11" t="n">
-        <v>740.0427452049121</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="F11" t="n">
-        <v>540.4244413201627</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="G11" t="n">
-        <v>340.8061374354133</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H11" t="n">
-        <v>141.187833550664</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="I11" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="J11" t="n">
-        <v>24.77728899937057</v>
+        <v>24.77728899937063</v>
       </c>
       <c r="K11" t="n">
-        <v>88.95579413398565</v>
+        <v>88.95579413398616</v>
       </c>
       <c r="L11" t="n">
-        <v>205.4766666630392</v>
+        <v>205.4766666630396</v>
       </c>
       <c r="M11" t="n">
-        <v>366.7980259642588</v>
+        <v>366.7980259642592</v>
       </c>
       <c r="N11" t="n">
-        <v>535.3435418940936</v>
+        <v>535.3435418940942</v>
       </c>
       <c r="O11" t="n">
-        <v>681.1610319510472</v>
+        <v>681.1610319510479</v>
       </c>
       <c r="P11" t="n">
-        <v>771.1118852488386</v>
+        <v>771.111885248839</v>
       </c>
       <c r="Q11" t="n">
-        <v>790.4884833836076</v>
+        <v>790.488483383608</v>
       </c>
       <c r="R11" t="n">
-        <v>790.4884833836076</v>
+        <v>790.488483383608</v>
       </c>
       <c r="S11" t="n">
-        <v>790.4884833836076</v>
+        <v>630.9131174143522</v>
       </c>
       <c r="T11" t="n">
-        <v>790.4884833836076</v>
+        <v>630.9131174143522</v>
       </c>
       <c r="U11" t="n">
-        <v>790.4884833836076</v>
+        <v>431.2948135296027</v>
       </c>
       <c r="V11" t="n">
-        <v>790.4884833836076</v>
+        <v>231.6765096448532</v>
       </c>
       <c r="W11" t="n">
-        <v>790.4884833836076</v>
+        <v>32.0582057601037</v>
       </c>
       <c r="X11" t="n">
-        <v>790.4884833836076</v>
+        <v>32.0582057601037</v>
       </c>
       <c r="Y11" t="n">
-        <v>790.4884833836076</v>
+        <v>32.0582057601037</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>790.4884833836076</v>
+        <v>311.2787373020385</v>
       </c>
       <c r="C12" t="n">
-        <v>758.3358468262318</v>
+        <v>311.2787373020385</v>
       </c>
       <c r="D12" t="n">
-        <v>609.4014371649805</v>
+        <v>162.3443276407872</v>
       </c>
       <c r="E12" t="n">
-        <v>450.1639821595251</v>
+        <v>162.3443276407872</v>
       </c>
       <c r="F12" t="n">
-        <v>303.62942418641</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="G12" t="n">
-        <v>166.1091265243302</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H12" t="n">
-        <v>64.43114056866742</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="I12" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="J12" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="K12" t="n">
         <v>70.93050455562916</v>
@@ -5135,37 +5135,37 @@
         <v>529.8178973567798</v>
       </c>
       <c r="O12" t="n">
-        <v>670.9314570632913</v>
+        <v>683.6996312595584</v>
       </c>
       <c r="P12" t="n">
-        <v>764.8544632756714</v>
+        <v>777.6226374719383</v>
       </c>
       <c r="Q12" t="n">
-        <v>790.4884833836076</v>
+        <v>790.488483383608</v>
       </c>
       <c r="R12" t="n">
-        <v>790.4884833836076</v>
+        <v>764.4778614105834</v>
       </c>
       <c r="S12" t="n">
-        <v>790.4884833836076</v>
+        <v>764.4778614105834</v>
       </c>
       <c r="T12" t="n">
-        <v>790.4884833836076</v>
+        <v>764.4778614105834</v>
       </c>
       <c r="U12" t="n">
-        <v>790.4884833836076</v>
+        <v>564.8595575258339</v>
       </c>
       <c r="V12" t="n">
-        <v>790.4884833836076</v>
+        <v>365.2412536410844</v>
       </c>
       <c r="W12" t="n">
-        <v>790.4884833836076</v>
+        <v>311.2787373020385</v>
       </c>
       <c r="X12" t="n">
-        <v>790.4884833836076</v>
+        <v>311.2787373020385</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.4884833836076</v>
+        <v>311.2787373020385</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>635.2675493125392</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="C13" t="n">
-        <v>635.2675493125392</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="D13" t="n">
-        <v>635.2675493125392</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="E13" t="n">
-        <v>635.2675493125392</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="F13" t="n">
-        <v>488.3776018146289</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="G13" t="n">
-        <v>319.7046096825763</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H13" t="n">
-        <v>164.8618584856838</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="I13" t="n">
-        <v>38.36095933675502</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="J13" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="K13" t="n">
-        <v>102.853094339738</v>
+        <v>109.3255390915781</v>
       </c>
       <c r="L13" t="n">
-        <v>117.1975629266206</v>
+        <v>284.5199622045996</v>
       </c>
       <c r="M13" t="n">
-        <v>312.3046411231128</v>
+        <v>312.3046411231132</v>
       </c>
       <c r="N13" t="n">
-        <v>507.9505407605557</v>
+        <v>507.9505407605562</v>
       </c>
       <c r="O13" t="n">
-        <v>672.8818973111537</v>
+        <v>672.8818973111541</v>
       </c>
       <c r="P13" t="n">
-        <v>790.4884833836076</v>
+        <v>790.488483383608</v>
       </c>
       <c r="Q13" t="n">
-        <v>790.4884833836076</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="R13" t="n">
-        <v>790.4884833836076</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="S13" t="n">
-        <v>790.4884833836076</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="T13" t="n">
-        <v>790.4884833836076</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="U13" t="n">
-        <v>790.4884833836076</v>
+        <v>588.8189847332446</v>
       </c>
       <c r="V13" t="n">
-        <v>790.4884833836076</v>
+        <v>389.2006808484952</v>
       </c>
       <c r="W13" t="n">
-        <v>790.4884833836076</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="X13" t="n">
-        <v>635.2675493125392</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.2675493125392</v>
+        <v>15.80976966767216</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>740.0427452049124</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="C14" t="n">
-        <v>740.0427452049124</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="D14" t="n">
-        <v>740.0427452049124</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="E14" t="n">
-        <v>740.0427452049124</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="F14" t="n">
-        <v>540.4244413201629</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="G14" t="n">
-        <v>340.8061374354135</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H14" t="n">
-        <v>141.187833550664</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="I14" t="n">
         <v>15.80976966767216</v>
       </c>
       <c r="J14" t="n">
-        <v>24.77728899937063</v>
+        <v>24.77728899937051</v>
       </c>
       <c r="K14" t="n">
-        <v>88.95579413398616</v>
+        <v>88.95579413398565</v>
       </c>
       <c r="L14" t="n">
-        <v>205.4766666630396</v>
+        <v>205.4766666630392</v>
       </c>
       <c r="M14" t="n">
-        <v>366.7980259642592</v>
+        <v>366.7980259642591</v>
       </c>
       <c r="N14" t="n">
-        <v>535.3435418940942</v>
+        <v>535.3435418940941</v>
       </c>
       <c r="O14" t="n">
-        <v>681.1610319510479</v>
+        <v>681.1610319510478</v>
       </c>
       <c r="P14" t="n">
         <v>771.111885248839</v>
       </c>
       <c r="Q14" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836081</v>
       </c>
       <c r="R14" t="n">
-        <v>790.488483383608</v>
+        <v>781.2253683860154</v>
       </c>
       <c r="S14" t="n">
-        <v>790.488483383608</v>
+        <v>781.2253683860154</v>
       </c>
       <c r="T14" t="n">
-        <v>790.488483383608</v>
+        <v>581.6070645012658</v>
       </c>
       <c r="U14" t="n">
-        <v>790.488483383608</v>
+        <v>415.0463774371713</v>
       </c>
       <c r="V14" t="n">
-        <v>790.488483383608</v>
+        <v>415.0463774371713</v>
       </c>
       <c r="W14" t="n">
-        <v>790.488483383608</v>
+        <v>415.0463774371713</v>
       </c>
       <c r="X14" t="n">
-        <v>790.488483383608</v>
+        <v>415.0463774371713</v>
       </c>
       <c r="Y14" t="n">
-        <v>740.0427452049124</v>
+        <v>215.4280735524217</v>
       </c>
     </row>
     <row r="15">
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>190.2627989487992</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="C15" t="n">
         <v>15.80976966767216</v>
@@ -5360,49 +5360,49 @@
         <v>15.80976966767216</v>
       </c>
       <c r="K15" t="n">
-        <v>70.93050455562916</v>
+        <v>70.93050455562921</v>
       </c>
       <c r="L15" t="n">
-        <v>191.3696760888237</v>
+        <v>191.3696760888238</v>
       </c>
       <c r="M15" t="n">
-        <v>364.0415508878729</v>
+        <v>351.2733766916059</v>
       </c>
       <c r="N15" t="n">
-        <v>542.5860715530468</v>
+        <v>529.8178973567799</v>
       </c>
       <c r="O15" t="n">
-        <v>683.6996312595584</v>
+        <v>670.9314570632914</v>
       </c>
       <c r="P15" t="n">
         <v>777.6226374719383</v>
       </c>
       <c r="Q15" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836081</v>
       </c>
       <c r="R15" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836081</v>
       </c>
       <c r="S15" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836081</v>
       </c>
       <c r="T15" t="n">
-        <v>790.488483383608</v>
+        <v>593.1811650894135</v>
       </c>
       <c r="U15" t="n">
-        <v>790.488483383608</v>
+        <v>393.562861204664</v>
       </c>
       <c r="V15" t="n">
-        <v>790.488483383608</v>
+        <v>193.9445573199145</v>
       </c>
       <c r="W15" t="n">
-        <v>590.8701794988585</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="X15" t="n">
-        <v>391.2518756141091</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="Y15" t="n">
-        <v>191.6335717293595</v>
+        <v>15.80976966767216</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>590.8701794988585</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="C16" t="n">
-        <v>590.8701794988585</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="D16" t="n">
-        <v>590.8701794988585</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="E16" t="n">
-        <v>590.8701794988585</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="F16" t="n">
-        <v>443.9802320009481</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="G16" t="n">
-        <v>275.3072398688956</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4644886720031</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="I16" t="n">
         <v>15.80976966767216</v>
@@ -5439,49 +5439,49 @@
         <v>15.80976966767216</v>
       </c>
       <c r="K16" t="n">
-        <v>109.3255390915781</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="L16" t="n">
-        <v>123.6700076784606</v>
+        <v>191.0041927806936</v>
       </c>
       <c r="M16" t="n">
-        <v>312.3046411231132</v>
+        <v>386.1112709771859</v>
       </c>
       <c r="N16" t="n">
-        <v>507.9505407605562</v>
+        <v>581.7571706146289</v>
       </c>
       <c r="O16" t="n">
-        <v>672.8818973111541</v>
+        <v>746.6885271652269</v>
       </c>
       <c r="P16" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836081</v>
       </c>
       <c r="Q16" t="n">
-        <v>790.488483383608</v>
+        <v>788.4372886179942</v>
       </c>
       <c r="R16" t="n">
-        <v>790.488483383608</v>
+        <v>788.4372886179942</v>
       </c>
       <c r="S16" t="n">
-        <v>790.488483383608</v>
+        <v>788.4372886179942</v>
       </c>
       <c r="T16" t="n">
-        <v>790.488483383608</v>
+        <v>588.8189847332446</v>
       </c>
       <c r="U16" t="n">
-        <v>790.488483383608</v>
+        <v>389.2006808484951</v>
       </c>
       <c r="V16" t="n">
-        <v>790.488483383608</v>
+        <v>197.4582344979119</v>
       </c>
       <c r="W16" t="n">
-        <v>790.488483383608</v>
+        <v>197.4582344979119</v>
       </c>
       <c r="X16" t="n">
-        <v>790.488483383608</v>
+        <v>197.4582344979119</v>
       </c>
       <c r="Y16" t="n">
-        <v>590.8701794988585</v>
+        <v>197.4582344979119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>740.0427452049124</v>
+        <v>391.2518756141088</v>
       </c>
       <c r="C17" t="n">
-        <v>540.4244413201629</v>
+        <v>215.4280735524216</v>
       </c>
       <c r="D17" t="n">
-        <v>540.4244413201629</v>
+        <v>215.4280735524216</v>
       </c>
       <c r="E17" t="n">
-        <v>540.4244413201629</v>
+        <v>215.4280735524216</v>
       </c>
       <c r="F17" t="n">
-        <v>540.4244413201629</v>
+        <v>215.4280735524216</v>
       </c>
       <c r="G17" t="n">
-        <v>340.8061374354135</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="H17" t="n">
-        <v>141.187833550664</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="I17" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="J17" t="n">
         <v>24.77728899937063</v>
       </c>
       <c r="K17" t="n">
-        <v>88.95579413398616</v>
+        <v>88.95579413398571</v>
       </c>
       <c r="L17" t="n">
-        <v>205.4766666630396</v>
+        <v>205.4766666630392</v>
       </c>
       <c r="M17" t="n">
-        <v>366.7980259642592</v>
+        <v>366.7980259642588</v>
       </c>
       <c r="N17" t="n">
-        <v>535.3435418940942</v>
+        <v>535.3435418940936</v>
       </c>
       <c r="O17" t="n">
-        <v>681.1610319510479</v>
+        <v>681.1610319510471</v>
       </c>
       <c r="P17" t="n">
-        <v>771.111885248839</v>
+        <v>771.1118852488386</v>
       </c>
       <c r="Q17" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="R17" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="S17" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="T17" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="U17" t="n">
-        <v>790.488483383608</v>
+        <v>590.8701794988582</v>
       </c>
       <c r="V17" t="n">
-        <v>790.488483383608</v>
+        <v>391.2518756141088</v>
       </c>
       <c r="W17" t="n">
-        <v>740.0427452049124</v>
+        <v>391.2518756141088</v>
       </c>
       <c r="X17" t="n">
-        <v>740.0427452049124</v>
+        <v>391.2518756141088</v>
       </c>
       <c r="Y17" t="n">
-        <v>740.0427452049124</v>
+        <v>391.2518756141088</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>633.5551095894496</v>
+        <v>547.0560345165012</v>
       </c>
       <c r="C18" t="n">
-        <v>459.1020803083225</v>
+        <v>372.6030052353742</v>
       </c>
       <c r="D18" t="n">
-        <v>459.1020803083225</v>
+        <v>223.6685955741229</v>
       </c>
       <c r="E18" t="n">
-        <v>299.864625302867</v>
+        <v>64.43114056866742</v>
       </c>
       <c r="F18" t="n">
-        <v>153.330067329752</v>
+        <v>64.43114056866742</v>
       </c>
       <c r="G18" t="n">
-        <v>15.80976966767216</v>
+        <v>64.43114056866742</v>
       </c>
       <c r="H18" t="n">
-        <v>15.80976966767216</v>
+        <v>64.43114056866742</v>
       </c>
       <c r="I18" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="J18" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="K18" t="n">
-        <v>70.93050455562916</v>
+        <v>83.69867875189578</v>
       </c>
       <c r="L18" t="n">
-        <v>191.3696760888237</v>
+        <v>204.1378502850904</v>
       </c>
       <c r="M18" t="n">
-        <v>364.0415508878729</v>
+        <v>364.0415508878724</v>
       </c>
       <c r="N18" t="n">
-        <v>542.5860715530468</v>
+        <v>542.5860715530464</v>
       </c>
       <c r="O18" t="n">
-        <v>683.6996312595584</v>
+        <v>683.6996312595579</v>
       </c>
       <c r="P18" t="n">
-        <v>777.6226374719383</v>
+        <v>777.6226374719379</v>
       </c>
       <c r="Q18" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="R18" t="n">
-        <v>764.4778614105834</v>
+        <v>764.4778614105829</v>
       </c>
       <c r="S18" t="n">
-        <v>633.5551095894496</v>
+        <v>764.4778614105829</v>
       </c>
       <c r="T18" t="n">
-        <v>633.5551095894496</v>
+        <v>764.4778614105829</v>
       </c>
       <c r="U18" t="n">
-        <v>633.5551095894496</v>
+        <v>746.6743384012506</v>
       </c>
       <c r="V18" t="n">
-        <v>633.5551095894496</v>
+        <v>746.6743384012506</v>
       </c>
       <c r="W18" t="n">
-        <v>633.5551095894496</v>
+        <v>746.6743384012506</v>
       </c>
       <c r="X18" t="n">
-        <v>633.5551095894496</v>
+        <v>746.6743384012506</v>
       </c>
       <c r="Y18" t="n">
-        <v>633.5551095894496</v>
+        <v>547.0560345165012</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>489.7053432048074</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="C19" t="n">
-        <v>320.7691602769004</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="D19" t="n">
-        <v>170.6525208645647</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="E19" t="n">
-        <v>170.6525208645647</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="F19" t="n">
-        <v>170.6525208645647</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="G19" t="n">
-        <v>170.6525208645647</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="H19" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="I19" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="J19" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="K19" t="n">
-        <v>15.80976966767216</v>
+        <v>109.3255390915781</v>
       </c>
       <c r="L19" t="n">
-        <v>117.1975629266209</v>
+        <v>284.5199622045996</v>
       </c>
       <c r="M19" t="n">
-        <v>312.3046411231132</v>
+        <v>473.7158908253365</v>
       </c>
       <c r="N19" t="n">
-        <v>507.9505407605562</v>
+        <v>669.3617904627794</v>
       </c>
       <c r="O19" t="n">
-        <v>672.8818973111541</v>
+        <v>672.8818973111537</v>
       </c>
       <c r="P19" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="Q19" t="n">
-        <v>790.488483383608</v>
+        <v>788.4372886179937</v>
       </c>
       <c r="R19" t="n">
-        <v>790.488483383608</v>
+        <v>654.985111952868</v>
       </c>
       <c r="S19" t="n">
-        <v>590.8701794988585</v>
+        <v>455.3668080681186</v>
       </c>
       <c r="T19" t="n">
-        <v>590.8701794988585</v>
+        <v>455.3668080681186</v>
       </c>
       <c r="U19" t="n">
-        <v>590.8701794988585</v>
+        <v>415.0463774371709</v>
       </c>
       <c r="V19" t="n">
-        <v>590.8701794988585</v>
+        <v>415.0463774371709</v>
       </c>
       <c r="W19" t="n">
-        <v>590.8701794988585</v>
+        <v>215.4280735524216</v>
       </c>
       <c r="X19" t="n">
-        <v>590.8701794988585</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="Y19" t="n">
-        <v>590.8701794988585</v>
+        <v>15.80976966767215</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>191.6335717293595</v>
+        <v>422.0316985320096</v>
       </c>
       <c r="C20" t="n">
-        <v>191.6335717293595</v>
+        <v>222.4133946472602</v>
       </c>
       <c r="D20" t="n">
-        <v>191.6335717293595</v>
+        <v>22.79509076251082</v>
       </c>
       <c r="E20" t="n">
-        <v>191.6335717293595</v>
+        <v>22.79509076251082</v>
       </c>
       <c r="F20" t="n">
-        <v>191.6335717293595</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="G20" t="n">
-        <v>141.187833550664</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="H20" t="n">
-        <v>141.187833550664</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="I20" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="J20" t="n">
-        <v>24.77728899937063</v>
+        <v>24.7772889993705</v>
       </c>
       <c r="K20" t="n">
-        <v>88.95579413398616</v>
+        <v>88.95579413398549</v>
       </c>
       <c r="L20" t="n">
-        <v>205.4766666630396</v>
+        <v>205.476666663039</v>
       </c>
       <c r="M20" t="n">
-        <v>366.7980259642592</v>
+        <v>366.7980259642587</v>
       </c>
       <c r="N20" t="n">
-        <v>535.3435418940942</v>
+        <v>535.3435418940937</v>
       </c>
       <c r="O20" t="n">
-        <v>681.1610319510479</v>
+        <v>681.1610319510473</v>
       </c>
       <c r="P20" t="n">
-        <v>771.111885248839</v>
+        <v>771.1118852488386</v>
       </c>
       <c r="Q20" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="R20" t="n">
-        <v>790.488483383608</v>
+        <v>781.2253683860148</v>
       </c>
       <c r="S20" t="n">
-        <v>790.488483383608</v>
+        <v>621.650002416759</v>
       </c>
       <c r="T20" t="n">
-        <v>590.8701794988585</v>
+        <v>422.0316985320096</v>
       </c>
       <c r="U20" t="n">
-        <v>590.8701794988585</v>
+        <v>422.0316985320096</v>
       </c>
       <c r="V20" t="n">
-        <v>590.8701794988585</v>
+        <v>422.0316985320096</v>
       </c>
       <c r="W20" t="n">
-        <v>590.8701794988585</v>
+        <v>422.0316985320096</v>
       </c>
       <c r="X20" t="n">
-        <v>590.8701794988585</v>
+        <v>422.0316985320096</v>
       </c>
       <c r="Y20" t="n">
-        <v>391.2518756141091</v>
+        <v>422.0316985320096</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.80976966767216</v>
+        <v>216.6199168038653</v>
       </c>
       <c r="C21" t="n">
-        <v>15.80976966767216</v>
+        <v>42.16688752273831</v>
       </c>
       <c r="D21" t="n">
-        <v>15.80976966767216</v>
+        <v>42.16688752273831</v>
       </c>
       <c r="E21" t="n">
-        <v>15.80976966767216</v>
+        <v>42.16688752273831</v>
       </c>
       <c r="F21" t="n">
-        <v>15.80976966767216</v>
+        <v>42.16688752273831</v>
       </c>
       <c r="G21" t="n">
-        <v>15.80976966767216</v>
+        <v>42.16688752273831</v>
       </c>
       <c r="H21" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="I21" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="J21" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="K21" t="n">
         <v>70.93050455562916</v>
@@ -5849,34 +5849,34 @@
         <v>670.9314570632913</v>
       </c>
       <c r="P21" t="n">
-        <v>777.6226374719383</v>
+        <v>764.8544632756714</v>
       </c>
       <c r="Q21" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="R21" t="n">
-        <v>790.488483383608</v>
+        <v>764.4778614105829</v>
       </c>
       <c r="S21" t="n">
-        <v>790.488483383608</v>
+        <v>613.5455389828094</v>
       </c>
       <c r="T21" t="n">
-        <v>593.1811650894133</v>
+        <v>416.2382206886147</v>
       </c>
       <c r="U21" t="n">
-        <v>593.1811650894133</v>
+        <v>416.2382206886147</v>
       </c>
       <c r="V21" t="n">
-        <v>393.5628612046638</v>
+        <v>416.2382206886147</v>
       </c>
       <c r="W21" t="n">
-        <v>193.9445573199143</v>
+        <v>416.2382206886147</v>
       </c>
       <c r="X21" t="n">
-        <v>15.80976966767216</v>
+        <v>216.6199168038653</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.80976966767216</v>
+        <v>216.6199168038653</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>590.8701794988585</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="C22" t="n">
-        <v>590.8701794988585</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="D22" t="n">
-        <v>590.8701794988585</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="E22" t="n">
-        <v>442.9570859164654</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="F22" t="n">
-        <v>442.9570859164654</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="G22" t="n">
-        <v>297.1534200134935</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="H22" t="n">
-        <v>142.310668816601</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="I22" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="J22" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="K22" t="n">
-        <v>15.80976966767216</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="L22" t="n">
         <v>191.0041927806936</v>
@@ -5922,40 +5922,40 @@
         <v>386.1112709771859</v>
       </c>
       <c r="N22" t="n">
-        <v>581.7571706146289</v>
+        <v>581.7571706146288</v>
       </c>
       <c r="O22" t="n">
-        <v>672.8818973111541</v>
+        <v>746.6885271652268</v>
       </c>
       <c r="P22" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="Q22" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="R22" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="S22" t="n">
-        <v>790.488483383608</v>
+        <v>590.8701794988582</v>
       </c>
       <c r="T22" t="n">
-        <v>790.488483383608</v>
+        <v>391.2518756141088</v>
       </c>
       <c r="U22" t="n">
-        <v>790.488483383608</v>
+        <v>391.2518756141088</v>
       </c>
       <c r="V22" t="n">
-        <v>590.8701794988585</v>
+        <v>215.4280735524216</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8701794988585</v>
+        <v>215.4280735524216</v>
       </c>
       <c r="X22" t="n">
-        <v>590.8701794988585</v>
+        <v>215.4280735524216</v>
       </c>
       <c r="Y22" t="n">
-        <v>590.8701794988585</v>
+        <v>15.80976966767215</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.22974893349115</v>
+        <v>343.6668364697219</v>
       </c>
       <c r="C23" t="n">
-        <v>19.22974893349115</v>
+        <v>343.6668364697219</v>
       </c>
       <c r="D23" t="n">
-        <v>19.22974893349115</v>
+        <v>100.866976198369</v>
       </c>
       <c r="E23" t="n">
-        <v>19.22974893349115</v>
+        <v>100.866976198369</v>
       </c>
       <c r="F23" t="n">
-        <v>19.22974893349115</v>
+        <v>100.866976198369</v>
       </c>
       <c r="G23" t="n">
-        <v>19.22974893349115</v>
+        <v>100.866976198369</v>
       </c>
       <c r="H23" t="n">
-        <v>19.22974893349115</v>
+        <v>100.866976198369</v>
       </c>
       <c r="I23" t="n">
         <v>19.22974893349115</v>
@@ -5992,49 +5992,49 @@
         <v>28.19726826518975</v>
       </c>
       <c r="K23" t="n">
-        <v>92.37577339980474</v>
+        <v>190.5321303028174</v>
       </c>
       <c r="L23" t="n">
-        <v>208.8966459288582</v>
+        <v>307.0530028318709</v>
       </c>
       <c r="M23" t="n">
-        <v>370.218005230078</v>
+        <v>468.3743621330906</v>
       </c>
       <c r="N23" t="n">
-        <v>608.1861482820309</v>
+        <v>706.3425051850436</v>
       </c>
       <c r="O23" t="n">
-        <v>846.1542913339838</v>
+        <v>852.1599952419972</v>
       </c>
       <c r="P23" t="n">
-        <v>936.105144631775</v>
+        <v>942.1108485397884</v>
       </c>
       <c r="Q23" t="n">
         <v>961.4874466745574</v>
       </c>
       <c r="R23" t="n">
-        <v>952.2243316769647</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="S23" t="n">
-        <v>792.6489657077088</v>
+        <v>801.9120807053016</v>
       </c>
       <c r="T23" t="n">
-        <v>792.6489657077088</v>
+        <v>586.4666967410749</v>
       </c>
       <c r="U23" t="n">
-        <v>549.8491054363559</v>
+        <v>343.6668364697219</v>
       </c>
       <c r="V23" t="n">
-        <v>307.049245165003</v>
+        <v>343.6668364697219</v>
       </c>
       <c r="W23" t="n">
-        <v>64.24938489365005</v>
+        <v>343.6668364697219</v>
       </c>
       <c r="X23" t="n">
-        <v>19.22974893349115</v>
+        <v>343.6668364697219</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.22974893349115</v>
+        <v>343.6668364697219</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>315.3201411513937</v>
+        <v>518.5750396778608</v>
       </c>
       <c r="C24" t="n">
-        <v>168.1641585947424</v>
+        <v>518.5750396778608</v>
       </c>
       <c r="D24" t="n">
-        <v>19.22974893349115</v>
+        <v>369.6406300166095</v>
       </c>
       <c r="E24" t="n">
-        <v>19.22974893349115</v>
+        <v>210.403175011154</v>
       </c>
       <c r="F24" t="n">
-        <v>19.22974893349115</v>
+        <v>63.86861703803899</v>
       </c>
       <c r="G24" t="n">
         <v>19.22974893349115</v>
@@ -6068,22 +6068,22 @@
         <v>19.22974893349115</v>
       </c>
       <c r="J24" t="n">
-        <v>130.5830200438053</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="K24" t="n">
-        <v>185.7037549317623</v>
+        <v>74.35048382144815</v>
       </c>
       <c r="L24" t="n">
-        <v>306.1429264649569</v>
+        <v>194.7896553546427</v>
       </c>
       <c r="M24" t="n">
-        <v>535.0405141788223</v>
+        <v>354.6933559574247</v>
       </c>
       <c r="N24" t="n">
-        <v>713.5850348439963</v>
+        <v>569.5398980044233</v>
       </c>
       <c r="O24" t="n">
-        <v>854.6985945505078</v>
+        <v>710.6534577109348</v>
       </c>
       <c r="P24" t="n">
         <v>948.6216007628877</v>
@@ -6107,13 +6107,13 @@
         <v>726.3353384428146</v>
       </c>
       <c r="W24" t="n">
-        <v>483.5354781714617</v>
+        <v>726.3353384428146</v>
       </c>
       <c r="X24" t="n">
-        <v>483.5354781714617</v>
+        <v>726.3353384428146</v>
       </c>
       <c r="Y24" t="n">
-        <v>483.5354781714617</v>
+        <v>518.5750396778608</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.22974893349115</v>
+        <v>359.3235844150357</v>
       </c>
       <c r="C25" t="n">
-        <v>19.22974893349115</v>
+        <v>359.3235844150357</v>
       </c>
       <c r="D25" t="n">
-        <v>19.22974893349115</v>
+        <v>314.0327900137946</v>
       </c>
       <c r="E25" t="n">
-        <v>19.22974893349115</v>
+        <v>166.1196964314015</v>
       </c>
       <c r="F25" t="n">
         <v>19.22974893349115</v>
@@ -6168,31 +6168,31 @@
         <v>961.4874466745574</v>
       </c>
       <c r="Q25" t="n">
-        <v>959.4362519089435</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="R25" t="n">
-        <v>939.3343435767863</v>
+        <v>828.0352700094318</v>
       </c>
       <c r="S25" t="n">
-        <v>730.7412947992401</v>
+        <v>828.0352700094318</v>
       </c>
       <c r="T25" t="n">
-        <v>504.829469476197</v>
+        <v>602.1234446863887</v>
       </c>
       <c r="U25" t="n">
-        <v>262.0296092048441</v>
+        <v>602.1234446863887</v>
       </c>
       <c r="V25" t="n">
-        <v>19.22974893349115</v>
+        <v>602.1234446863887</v>
       </c>
       <c r="W25" t="n">
-        <v>19.22974893349115</v>
+        <v>359.3235844150357</v>
       </c>
       <c r="X25" t="n">
-        <v>19.22974893349115</v>
+        <v>359.3235844150357</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.22974893349115</v>
+        <v>359.3235844150357</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>504.829469476197</v>
+        <v>262.0296092048441</v>
       </c>
       <c r="C26" t="n">
         <v>262.0296092048441</v>
       </c>
       <c r="D26" t="n">
-        <v>262.0296092048441</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="E26" t="n">
-        <v>262.0296092048441</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="F26" t="n">
-        <v>262.0296092048441</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="G26" t="n">
-        <v>262.0296092048441</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="H26" t="n">
         <v>19.22974893349115</v>
@@ -6232,13 +6232,13 @@
         <v>92.37577339980474</v>
       </c>
       <c r="L26" t="n">
-        <v>208.8966459288582</v>
+        <v>330.3439164517577</v>
       </c>
       <c r="M26" t="n">
-        <v>445.6463362602093</v>
+        <v>491.6652757529774</v>
       </c>
       <c r="N26" t="n">
-        <v>614.1918521900443</v>
+        <v>660.2107916828124</v>
       </c>
       <c r="O26" t="n">
         <v>852.1599952419972</v>
@@ -6250,28 +6250,28 @@
         <v>961.4874466745574</v>
       </c>
       <c r="R26" t="n">
-        <v>952.2243316769647</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="S26" t="n">
-        <v>952.2243316769647</v>
+        <v>801.9120807053016</v>
       </c>
       <c r="T26" t="n">
-        <v>952.2243316769647</v>
+        <v>801.9120807053016</v>
       </c>
       <c r="U26" t="n">
-        <v>952.2243316769647</v>
+        <v>559.1122204339487</v>
       </c>
       <c r="V26" t="n">
-        <v>952.2243316769647</v>
+        <v>559.1122204339487</v>
       </c>
       <c r="W26" t="n">
-        <v>747.6293297475499</v>
+        <v>559.1122204339487</v>
       </c>
       <c r="X26" t="n">
-        <v>747.6293297475499</v>
+        <v>559.1122204339487</v>
       </c>
       <c r="Y26" t="n">
-        <v>504.829469476197</v>
+        <v>316.3123601625957</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.22974893349115</v>
+        <v>41.91305722795033</v>
       </c>
       <c r="C27" t="n">
         <v>19.22974893349115</v>
@@ -6305,13 +6305,13 @@
         <v>19.22974893349115</v>
       </c>
       <c r="J27" t="n">
-        <v>130.5830200438053</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="K27" t="n">
-        <v>254.6976420428457</v>
+        <v>74.35048382144815</v>
       </c>
       <c r="L27" t="n">
-        <v>375.1368135760403</v>
+        <v>312.3186268734011</v>
       </c>
       <c r="M27" t="n">
         <v>535.0405141788223</v>
@@ -6329,28 +6329,28 @@
         <v>961.4874466745574</v>
       </c>
       <c r="R27" t="n">
-        <v>961.4874466745574</v>
+        <v>935.4768247015328</v>
       </c>
       <c r="S27" t="n">
-        <v>961.4874466745574</v>
+        <v>935.4768247015328</v>
       </c>
       <c r="T27" t="n">
-        <v>764.1801283803627</v>
+        <v>935.4768247015328</v>
       </c>
       <c r="U27" t="n">
-        <v>536.0361501006535</v>
+        <v>935.4768247015328</v>
       </c>
       <c r="V27" t="n">
-        <v>300.8840418689107</v>
+        <v>700.32471646979</v>
       </c>
       <c r="W27" t="n">
-        <v>58.08418159755783</v>
+        <v>457.5248561984371</v>
       </c>
       <c r="X27" t="n">
-        <v>19.22974893349115</v>
+        <v>249.6733559929042</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.22974893349115</v>
+        <v>41.91305722795033</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>660.7337640083548</v>
+        <v>651.641965073754</v>
       </c>
       <c r="C28" t="n">
-        <v>491.7975810804479</v>
+        <v>482.7057821458471</v>
       </c>
       <c r="D28" t="n">
-        <v>491.7975810804479</v>
+        <v>482.7057821458471</v>
       </c>
       <c r="E28" t="n">
-        <v>491.7975810804479</v>
+        <v>334.792688563454</v>
       </c>
       <c r="F28" t="n">
-        <v>491.7975810804479</v>
+        <v>187.9027410655437</v>
       </c>
       <c r="G28" t="n">
-        <v>323.1245889483953</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="H28" t="n">
-        <v>168.2818377515028</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="I28" t="n">
-        <v>41.78093860257402</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="J28" t="n">
         <v>19.22974893349115</v>
@@ -6393,43 +6393,43 @@
         <v>287.9399414704185</v>
       </c>
       <c r="M28" t="n">
-        <v>483.0470196669107</v>
+        <v>483.0470196669108</v>
       </c>
       <c r="N28" t="n">
-        <v>678.9495040515055</v>
+        <v>678.9495040515056</v>
       </c>
       <c r="O28" t="n">
-        <v>843.8808606021036</v>
+        <v>843.8808606021037</v>
       </c>
       <c r="P28" t="n">
-        <v>961.4874466745574</v>
+        <v>961.4874466745575</v>
       </c>
       <c r="Q28" t="n">
-        <v>961.4874466745574</v>
+        <v>961.4874466745575</v>
       </c>
       <c r="R28" t="n">
-        <v>886.6455893313979</v>
+        <v>961.4874466745575</v>
       </c>
       <c r="S28" t="n">
-        <v>886.6455893313979</v>
+        <v>752.8943978970113</v>
       </c>
       <c r="T28" t="n">
-        <v>660.7337640083548</v>
+        <v>752.8943978970113</v>
       </c>
       <c r="U28" t="n">
-        <v>660.7337640083548</v>
+        <v>752.8943978970113</v>
       </c>
       <c r="V28" t="n">
-        <v>660.7337640083548</v>
+        <v>752.8943978970113</v>
       </c>
       <c r="W28" t="n">
-        <v>660.7337640083548</v>
+        <v>752.8943978970113</v>
       </c>
       <c r="X28" t="n">
-        <v>660.7337640083548</v>
+        <v>752.8943978970113</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.7337640083548</v>
+        <v>752.8943978970113</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>504.829469476197</v>
+        <v>262.0296092048441</v>
       </c>
       <c r="C29" t="n">
-        <v>504.829469476197</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="D29" t="n">
-        <v>504.829469476197</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="E29" t="n">
-        <v>504.829469476197</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="F29" t="n">
-        <v>262.0296092048441</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="G29" t="n">
         <v>19.22974893349115</v>
@@ -6463,37 +6463,37 @@
         <v>19.22974893349115</v>
       </c>
       <c r="J29" t="n">
-        <v>28.19726826518975</v>
+        <v>195.6029172855428</v>
       </c>
       <c r="K29" t="n">
-        <v>92.37577339980474</v>
+        <v>259.9547574249353</v>
       </c>
       <c r="L29" t="n">
-        <v>208.8966459288582</v>
+        <v>376.4756299539889</v>
       </c>
       <c r="M29" t="n">
-        <v>370.218005230078</v>
+        <v>537.7969892552086</v>
       </c>
       <c r="N29" t="n">
-        <v>538.763521159913</v>
+        <v>706.3425051850436</v>
       </c>
       <c r="O29" t="n">
-        <v>684.5810112168666</v>
+        <v>852.1599952419972</v>
       </c>
       <c r="P29" t="n">
-        <v>774.5318645146579</v>
+        <v>942.1108485397884</v>
       </c>
       <c r="Q29" t="n">
         <v>961.4874466745574</v>
       </c>
       <c r="R29" t="n">
-        <v>952.2243316769647</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="S29" t="n">
-        <v>952.2243316769647</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="T29" t="n">
-        <v>747.6293297475499</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="U29" t="n">
         <v>747.6293297475499</v>
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.22974893349115</v>
+        <v>352.9202332200737</v>
       </c>
       <c r="C30" t="n">
-        <v>19.22974893349115</v>
+        <v>178.4672039389467</v>
       </c>
       <c r="D30" t="n">
-        <v>19.22974893349115</v>
+        <v>178.4672039389467</v>
       </c>
       <c r="E30" t="n">
         <v>19.22974893349115</v>
@@ -6551,43 +6551,43 @@
         <v>194.7896553546427</v>
       </c>
       <c r="M30" t="n">
-        <v>354.6933559574247</v>
+        <v>378.7623084466019</v>
       </c>
       <c r="N30" t="n">
-        <v>533.2378766225987</v>
+        <v>616.7304514985549</v>
       </c>
       <c r="O30" t="n">
-        <v>674.3514363291102</v>
+        <v>854.6985945505078</v>
       </c>
       <c r="P30" t="n">
-        <v>912.3195793810632</v>
+        <v>948.6216007628877</v>
       </c>
       <c r="Q30" t="n">
         <v>961.4874466745574</v>
       </c>
       <c r="R30" t="n">
-        <v>935.4768247015328</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="S30" t="n">
-        <v>935.4768247015328</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="T30" t="n">
-        <v>935.4768247015328</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="U30" t="n">
-        <v>707.3328464218234</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="V30" t="n">
-        <v>472.1807381900807</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="W30" t="n">
-        <v>229.3808779187278</v>
+        <v>718.6875864032045</v>
       </c>
       <c r="X30" t="n">
-        <v>21.52937771319498</v>
+        <v>560.6805319850275</v>
       </c>
       <c r="Y30" t="n">
-        <v>21.52937771319498</v>
+        <v>352.9202332200737</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.22974893349115</v>
+        <v>233.0878658604987</v>
       </c>
       <c r="C31" t="n">
-        <v>19.22974893349115</v>
+        <v>64.15168293259183</v>
       </c>
       <c r="D31" t="n">
-        <v>19.22974893349115</v>
+        <v>64.15168293259183</v>
       </c>
       <c r="E31" t="n">
         <v>19.22974893349115</v>
@@ -6621,7 +6621,7 @@
         <v>19.22974893349115</v>
       </c>
       <c r="J31" t="n">
-        <v>19.22974893349111</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="K31" t="n">
         <v>112.7455183573971</v>
@@ -6630,43 +6630,43 @@
         <v>287.9399414704185</v>
       </c>
       <c r="M31" t="n">
-        <v>483.0470196669107</v>
+        <v>483.0470196669108</v>
       </c>
       <c r="N31" t="n">
-        <v>678.9495040515055</v>
+        <v>678.9495040515056</v>
       </c>
       <c r="O31" t="n">
-        <v>843.8808606021036</v>
+        <v>843.8808606021037</v>
       </c>
       <c r="P31" t="n">
-        <v>961.4874466745574</v>
+        <v>961.4874466745575</v>
       </c>
       <c r="Q31" t="n">
-        <v>961.4874466745574</v>
+        <v>961.4874466745575</v>
       </c>
       <c r="R31" t="n">
-        <v>961.4874466745574</v>
+        <v>961.4874466745575</v>
       </c>
       <c r="S31" t="n">
-        <v>961.4874466745574</v>
+        <v>961.4874466745575</v>
       </c>
       <c r="T31" t="n">
-        <v>961.4874466745574</v>
+        <v>961.4874466745575</v>
       </c>
       <c r="U31" t="n">
-        <v>953.6115995177445</v>
+        <v>718.6875864032046</v>
       </c>
       <c r="V31" t="n">
-        <v>710.8117392463915</v>
+        <v>475.8877261318517</v>
       </c>
       <c r="W31" t="n">
-        <v>468.0118789750386</v>
+        <v>233.0878658604987</v>
       </c>
       <c r="X31" t="n">
-        <v>240.0223280770213</v>
+        <v>233.0878658604987</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.22974893349115</v>
+        <v>233.0878658604987</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>466.6246111342588</v>
+      </c>
+      <c r="C32" t="n">
+        <v>466.6246111342588</v>
+      </c>
+      <c r="D32" t="n">
+        <v>466.6246111342588</v>
+      </c>
+      <c r="E32" t="n">
+        <v>466.6246111342588</v>
+      </c>
+      <c r="F32" t="n">
         <v>262.0296092048441</v>
       </c>
-      <c r="C32" t="n">
+      <c r="G32" t="n">
         <v>262.0296092048441</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.0296092048441</v>
-      </c>
-      <c r="E32" t="n">
-        <v>262.0296092048441</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.22974893349115</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.22974893349115</v>
       </c>
       <c r="H32" t="n">
         <v>19.22974893349115</v>
@@ -6700,22 +6700,22 @@
         <v>19.22974893349115</v>
       </c>
       <c r="J32" t="n">
-        <v>28.19726826518975</v>
+        <v>195.6029172855428</v>
       </c>
       <c r="K32" t="n">
-        <v>92.37577339980474</v>
+        <v>259.7814224201578</v>
       </c>
       <c r="L32" t="n">
-        <v>208.8966459288582</v>
+        <v>376.3022949492113</v>
       </c>
       <c r="M32" t="n">
-        <v>446.8647889808112</v>
+        <v>537.6236542504311</v>
       </c>
       <c r="N32" t="n">
-        <v>684.8329320327641</v>
+        <v>706.1691701802661</v>
       </c>
       <c r="O32" t="n">
-        <v>852.1599952419972</v>
+        <v>851.9866602372197</v>
       </c>
       <c r="P32" t="n">
         <v>942.1108485397884</v>
@@ -6724,28 +6724,28 @@
         <v>961.4874466745574</v>
       </c>
       <c r="R32" t="n">
-        <v>961.4874466745574</v>
+        <v>952.2243316769647</v>
       </c>
       <c r="S32" t="n">
-        <v>961.4874466745574</v>
+        <v>952.2243316769647</v>
       </c>
       <c r="T32" t="n">
-        <v>747.6293297475499</v>
+        <v>952.2243316769647</v>
       </c>
       <c r="U32" t="n">
-        <v>747.6293297475499</v>
+        <v>709.4244714056117</v>
       </c>
       <c r="V32" t="n">
-        <v>504.829469476197</v>
+        <v>709.4244714056117</v>
       </c>
       <c r="W32" t="n">
-        <v>504.829469476197</v>
+        <v>709.4244714056117</v>
       </c>
       <c r="X32" t="n">
-        <v>262.0296092048441</v>
+        <v>466.6246111342588</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.0296092048441</v>
+        <v>466.6246111342588</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>267.2256678562759</v>
+        <v>165.7643069066062</v>
       </c>
       <c r="C33" t="n">
-        <v>267.2256678562759</v>
+        <v>165.7643069066062</v>
       </c>
       <c r="D33" t="n">
-        <v>267.2256678562759</v>
+        <v>165.7643069066062</v>
       </c>
       <c r="E33" t="n">
-        <v>107.9882128508204</v>
+        <v>165.7643069066062</v>
       </c>
       <c r="F33" t="n">
         <v>19.22974893349115</v>
@@ -6779,52 +6779,52 @@
         <v>19.22974893349115</v>
       </c>
       <c r="J33" t="n">
-        <v>130.5830200438053</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="K33" t="n">
-        <v>185.7037549317623</v>
+        <v>74.35048382144815</v>
       </c>
       <c r="L33" t="n">
-        <v>306.1429264649569</v>
+        <v>194.7896553546427</v>
       </c>
       <c r="M33" t="n">
-        <v>466.0466270677389</v>
+        <v>354.6933559574247</v>
       </c>
       <c r="N33" t="n">
-        <v>704.0147701196918</v>
+        <v>533.2378766225987</v>
       </c>
       <c r="O33" t="n">
-        <v>845.1283298262033</v>
+        <v>710.6534577109348</v>
       </c>
       <c r="P33" t="n">
-        <v>939.0513360385833</v>
+        <v>948.6216007628877</v>
       </c>
       <c r="Q33" t="n">
         <v>961.4874466745574</v>
       </c>
       <c r="R33" t="n">
-        <v>935.4768247015328</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="S33" t="n">
-        <v>935.4768247015328</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="T33" t="n">
-        <v>738.1695064073381</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="U33" t="n">
-        <v>510.0255281276288</v>
+        <v>733.3434683948481</v>
       </c>
       <c r="V33" t="n">
-        <v>510.0255281276288</v>
+        <v>498.1913601631053</v>
       </c>
       <c r="W33" t="n">
-        <v>267.2256678562759</v>
+        <v>255.3914998917524</v>
       </c>
       <c r="X33" t="n">
-        <v>267.2256678562759</v>
+        <v>165.7643069066062</v>
       </c>
       <c r="Y33" t="n">
-        <v>267.2256678562759</v>
+        <v>165.7643069066062</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>959.4362519089436</v>
+        <v>167.1428425158843</v>
       </c>
       <c r="C34" t="n">
-        <v>790.5000689810367</v>
+        <v>167.1428425158843</v>
       </c>
       <c r="D34" t="n">
-        <v>640.383429568701</v>
+        <v>167.1428425158843</v>
       </c>
       <c r="E34" t="n">
-        <v>492.4703359863079</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="F34" t="n">
-        <v>345.5803884883975</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="G34" t="n">
-        <v>176.9073963563449</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="H34" t="n">
-        <v>22.0646451594524</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="I34" t="n">
         <v>19.22974893349115</v>
@@ -6879,31 +6879,31 @@
         <v>961.4874466745575</v>
       </c>
       <c r="Q34" t="n">
-        <v>959.4362519089436</v>
+        <v>961.4874466745575</v>
       </c>
       <c r="R34" t="n">
-        <v>959.4362519089436</v>
+        <v>961.4874466745575</v>
       </c>
       <c r="S34" t="n">
-        <v>959.4362519089436</v>
+        <v>961.4874466745575</v>
       </c>
       <c r="T34" t="n">
-        <v>959.4362519089436</v>
+        <v>961.4874466745575</v>
       </c>
       <c r="U34" t="n">
-        <v>959.4362519089436</v>
+        <v>718.6875864032046</v>
       </c>
       <c r="V34" t="n">
-        <v>959.4362519089436</v>
+        <v>718.6875864032046</v>
       </c>
       <c r="W34" t="n">
-        <v>959.4362519089436</v>
+        <v>718.6875864032046</v>
       </c>
       <c r="X34" t="n">
-        <v>959.4362519089436</v>
+        <v>569.5838864896541</v>
       </c>
       <c r="Y34" t="n">
-        <v>959.4362519089436</v>
+        <v>348.791307346124</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.0463774371709</v>
+        <v>215.4280735524216</v>
       </c>
       <c r="C35" t="n">
         <v>215.4280735524216</v>
       </c>
       <c r="D35" t="n">
-        <v>15.80976966767215</v>
+        <v>215.4280735524216</v>
       </c>
       <c r="E35" t="n">
         <v>15.80976966767215</v>
@@ -6958,31 +6958,31 @@
         <v>771.1118852488388</v>
       </c>
       <c r="Q35" t="n">
-        <v>790.4884833836076</v>
+        <v>790.4884833836077</v>
       </c>
       <c r="R35" t="n">
-        <v>790.4884833836076</v>
+        <v>781.2253683860149</v>
       </c>
       <c r="S35" t="n">
-        <v>790.4884833836076</v>
+        <v>781.2253683860149</v>
       </c>
       <c r="T35" t="n">
-        <v>790.4884833836076</v>
+        <v>781.2253683860149</v>
       </c>
       <c r="U35" t="n">
-        <v>790.4884833836076</v>
+        <v>781.2253683860149</v>
       </c>
       <c r="V35" t="n">
-        <v>790.4884833836076</v>
+        <v>781.2253683860149</v>
       </c>
       <c r="W35" t="n">
-        <v>790.4884833836076</v>
+        <v>781.2253683860149</v>
       </c>
       <c r="X35" t="n">
-        <v>790.4884833836076</v>
+        <v>614.6646813219204</v>
       </c>
       <c r="Y35" t="n">
-        <v>590.8701794988582</v>
+        <v>415.046377437171</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15.80976966767215</v>
+        <v>175.0472246731277</v>
       </c>
       <c r="C36" t="n">
-        <v>15.80976966767215</v>
+        <v>175.0472246731277</v>
       </c>
       <c r="D36" t="n">
-        <v>15.80976966767215</v>
+        <v>175.0472246731277</v>
       </c>
       <c r="E36" t="n">
         <v>15.80976966767215</v>
@@ -7016,52 +7016,52 @@
         <v>15.80976966767215</v>
       </c>
       <c r="J36" t="n">
-        <v>28.57794386393878</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="K36" t="n">
-        <v>83.69867875189578</v>
+        <v>70.93050455562916</v>
       </c>
       <c r="L36" t="n">
-        <v>204.1378502850904</v>
+        <v>191.3696760888237</v>
       </c>
       <c r="M36" t="n">
-        <v>364.0415508878724</v>
+        <v>351.2733766916058</v>
       </c>
       <c r="N36" t="n">
-        <v>542.5860715530464</v>
+        <v>529.8178973567798</v>
       </c>
       <c r="O36" t="n">
         <v>683.6996312595579</v>
       </c>
       <c r="P36" t="n">
-        <v>777.6226374719379</v>
+        <v>777.622637471938</v>
       </c>
       <c r="Q36" t="n">
-        <v>790.4884833836076</v>
+        <v>790.4884833836077</v>
       </c>
       <c r="R36" t="n">
-        <v>790.4884833836076</v>
+        <v>771.5911507368212</v>
       </c>
       <c r="S36" t="n">
-        <v>790.4884833836076</v>
+        <v>771.5911507368212</v>
       </c>
       <c r="T36" t="n">
-        <v>782.8800183419884</v>
+        <v>574.2838324426266</v>
       </c>
       <c r="U36" t="n">
-        <v>583.261714457239</v>
+        <v>574.2838324426266</v>
       </c>
       <c r="V36" t="n">
-        <v>383.6434105724896</v>
+        <v>374.6655285578771</v>
       </c>
       <c r="W36" t="n">
-        <v>184.0251066877402</v>
+        <v>175.0472246731277</v>
       </c>
       <c r="X36" t="n">
-        <v>184.0251066877402</v>
+        <v>175.0472246731277</v>
       </c>
       <c r="Y36" t="n">
-        <v>184.0251066877402</v>
+        <v>175.0472246731277</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.4884833836076</v>
+        <v>188.4775987490908</v>
       </c>
       <c r="C37" t="n">
-        <v>784.2451934892565</v>
+        <v>188.4775987490908</v>
       </c>
       <c r="D37" t="n">
-        <v>634.1285540769208</v>
+        <v>38.36095933675502</v>
       </c>
       <c r="E37" t="n">
-        <v>486.2154604945276</v>
+        <v>38.36095933675502</v>
       </c>
       <c r="F37" t="n">
-        <v>339.3255129966172</v>
+        <v>38.36095933675502</v>
       </c>
       <c r="G37" t="n">
-        <v>170.6525208645647</v>
+        <v>38.36095933675502</v>
       </c>
       <c r="H37" t="n">
-        <v>15.80976966767215</v>
+        <v>38.36095933675502</v>
       </c>
       <c r="I37" t="n">
-        <v>15.80976966767215</v>
+        <v>38.36095933675502</v>
       </c>
       <c r="J37" t="n">
         <v>15.80976966767215</v>
@@ -7113,34 +7113,34 @@
         <v>746.6885271652268</v>
       </c>
       <c r="P37" t="n">
-        <v>790.4884833836076</v>
+        <v>790.4884833836077</v>
       </c>
       <c r="Q37" t="n">
-        <v>790.4884833836076</v>
+        <v>790.4884833836077</v>
       </c>
       <c r="R37" t="n">
-        <v>790.4884833836076</v>
+        <v>790.4884833836077</v>
       </c>
       <c r="S37" t="n">
-        <v>790.4884833836076</v>
+        <v>790.4884833836077</v>
       </c>
       <c r="T37" t="n">
-        <v>790.4884833836076</v>
+        <v>790.4884833836077</v>
       </c>
       <c r="U37" t="n">
-        <v>790.4884833836076</v>
+        <v>787.332510403339</v>
       </c>
       <c r="V37" t="n">
-        <v>790.4884833836076</v>
+        <v>587.7142065185897</v>
       </c>
       <c r="W37" t="n">
-        <v>790.4884833836076</v>
+        <v>388.0959026338402</v>
       </c>
       <c r="X37" t="n">
-        <v>790.4884833836076</v>
+        <v>188.4775987490908</v>
       </c>
       <c r="Y37" t="n">
-        <v>790.4884833836076</v>
+        <v>188.4775987490908</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.0463774371709</v>
+        <v>22.79509076251082</v>
       </c>
       <c r="C38" t="n">
-        <v>415.0463774371709</v>
+        <v>22.79509076251082</v>
       </c>
       <c r="D38" t="n">
-        <v>415.0463774371709</v>
+        <v>22.79509076251082</v>
       </c>
       <c r="E38" t="n">
-        <v>215.4280735524216</v>
+        <v>22.79509076251082</v>
       </c>
       <c r="F38" t="n">
-        <v>15.80976966767215</v>
+        <v>22.79509076251082</v>
       </c>
       <c r="G38" t="n">
-        <v>15.80976966767215</v>
+        <v>22.79509076251082</v>
       </c>
       <c r="H38" t="n">
-        <v>15.80976966767215</v>
+        <v>22.79509076251082</v>
       </c>
       <c r="I38" t="n">
         <v>15.80976966767215</v>
       </c>
       <c r="J38" t="n">
-        <v>24.77728899937071</v>
+        <v>24.77728899937075</v>
       </c>
       <c r="K38" t="n">
-        <v>88.95579413398573</v>
+        <v>88.95579413398575</v>
       </c>
       <c r="L38" t="n">
-        <v>205.4766666630391</v>
+        <v>205.4766666630393</v>
       </c>
       <c r="M38" t="n">
-        <v>366.7980259642588</v>
+        <v>366.798025964259</v>
       </c>
       <c r="N38" t="n">
-        <v>535.3435418940936</v>
+        <v>535.3435418940938</v>
       </c>
       <c r="O38" t="n">
-        <v>681.1610319510472</v>
+        <v>681.1610319510474</v>
       </c>
       <c r="P38" t="n">
-        <v>771.1118852488386</v>
+        <v>771.1118852488387</v>
       </c>
       <c r="Q38" t="n">
-        <v>790.4884833836076</v>
+        <v>790.4884833836077</v>
       </c>
       <c r="R38" t="n">
-        <v>790.4884833836076</v>
+        <v>781.2253683860149</v>
       </c>
       <c r="S38" t="n">
-        <v>790.4884833836076</v>
+        <v>621.6500024167591</v>
       </c>
       <c r="T38" t="n">
-        <v>790.4884833836076</v>
+        <v>422.0316985320097</v>
       </c>
       <c r="U38" t="n">
-        <v>590.8701794988582</v>
+        <v>222.4133946472602</v>
       </c>
       <c r="V38" t="n">
-        <v>415.0463774371709</v>
+        <v>22.79509076251082</v>
       </c>
       <c r="W38" t="n">
-        <v>415.0463774371709</v>
+        <v>22.79509076251082</v>
       </c>
       <c r="X38" t="n">
-        <v>415.0463774371709</v>
+        <v>22.79509076251082</v>
       </c>
       <c r="Y38" t="n">
-        <v>415.0463774371709</v>
+        <v>22.79509076251082</v>
       </c>
     </row>
     <row r="39">
@@ -7256,49 +7256,49 @@
         <v>15.80976966767215</v>
       </c>
       <c r="K39" t="n">
-        <v>83.69867875189578</v>
+        <v>70.93050455562916</v>
       </c>
       <c r="L39" t="n">
-        <v>204.1378502850904</v>
+        <v>191.3696760888237</v>
       </c>
       <c r="M39" t="n">
-        <v>364.0415508878724</v>
+        <v>351.2733766916058</v>
       </c>
       <c r="N39" t="n">
-        <v>542.5860715530464</v>
+        <v>529.8178973567798</v>
       </c>
       <c r="O39" t="n">
-        <v>683.6996312595579</v>
+        <v>670.9314570632913</v>
       </c>
       <c r="P39" t="n">
-        <v>777.6226374719379</v>
+        <v>764.8544632756714</v>
       </c>
       <c r="Q39" t="n">
-        <v>790.4884833836076</v>
+        <v>790.4884833836077</v>
       </c>
       <c r="R39" t="n">
-        <v>790.4884833836076</v>
+        <v>790.4884833836077</v>
       </c>
       <c r="S39" t="n">
-        <v>790.4884833836076</v>
+        <v>639.5561609558341</v>
       </c>
       <c r="T39" t="n">
-        <v>593.1811650894128</v>
+        <v>442.2488426616395</v>
       </c>
       <c r="U39" t="n">
-        <v>393.5628612046635</v>
+        <v>242.63053877689</v>
       </c>
       <c r="V39" t="n">
-        <v>193.9445573199141</v>
+        <v>43.01223489214061</v>
       </c>
       <c r="W39" t="n">
-        <v>193.9445573199141</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="X39" t="n">
-        <v>193.9445573199141</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="Y39" t="n">
-        <v>184.0251066877402</v>
+        <v>15.80976966767215</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.80976966767215</v>
+        <v>389.200680848495</v>
       </c>
       <c r="C40" t="n">
-        <v>15.80976966767215</v>
+        <v>220.2644979205881</v>
       </c>
       <c r="D40" t="n">
-        <v>15.80976966767215</v>
+        <v>220.2644979205881</v>
       </c>
       <c r="E40" t="n">
-        <v>15.80976966767215</v>
+        <v>220.2644979205881</v>
       </c>
       <c r="F40" t="n">
-        <v>15.80976966767215</v>
+        <v>184.4827617997247</v>
       </c>
       <c r="G40" t="n">
         <v>15.80976966767215</v>
@@ -7335,49 +7335,49 @@
         <v>15.80976966767215</v>
       </c>
       <c r="K40" t="n">
-        <v>15.80976966767215</v>
+        <v>109.3255390915781</v>
       </c>
       <c r="L40" t="n">
-        <v>191.0041927806936</v>
+        <v>284.5199622045996</v>
       </c>
       <c r="M40" t="n">
-        <v>386.1112709771859</v>
+        <v>479.6270404010918</v>
       </c>
       <c r="N40" t="n">
-        <v>581.7571706146288</v>
+        <v>507.9505407605558</v>
       </c>
       <c r="O40" t="n">
-        <v>746.6885271652268</v>
+        <v>672.8818973111538</v>
       </c>
       <c r="P40" t="n">
-        <v>790.4884833836076</v>
+        <v>790.4884833836077</v>
       </c>
       <c r="Q40" t="n">
-        <v>790.4884833836076</v>
+        <v>788.4372886179938</v>
       </c>
       <c r="R40" t="n">
-        <v>790.4884833836076</v>
+        <v>788.4372886179938</v>
       </c>
       <c r="S40" t="n">
-        <v>590.8701794988582</v>
+        <v>588.8189847332444</v>
       </c>
       <c r="T40" t="n">
-        <v>391.2518756141088</v>
+        <v>389.200680848495</v>
       </c>
       <c r="U40" t="n">
-        <v>215.4280735524216</v>
+        <v>389.200680848495</v>
       </c>
       <c r="V40" t="n">
-        <v>15.80976966767215</v>
+        <v>389.200680848495</v>
       </c>
       <c r="W40" t="n">
-        <v>15.80976966767215</v>
+        <v>389.200680848495</v>
       </c>
       <c r="X40" t="n">
-        <v>15.80976966767215</v>
+        <v>389.200680848495</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.80976966767215</v>
+        <v>389.200680848495</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.6646813219203</v>
+        <v>231.676509644853</v>
       </c>
       <c r="C41" t="n">
-        <v>614.6646813219203</v>
+        <v>231.676509644853</v>
       </c>
       <c r="D41" t="n">
-        <v>614.6646813219203</v>
+        <v>231.676509644853</v>
       </c>
       <c r="E41" t="n">
-        <v>415.0463774371709</v>
+        <v>32.05820576010359</v>
       </c>
       <c r="F41" t="n">
-        <v>215.4280735524216</v>
+        <v>32.05820576010359</v>
       </c>
       <c r="G41" t="n">
-        <v>15.80976966767215</v>
+        <v>32.05820576010359</v>
       </c>
       <c r="H41" t="n">
-        <v>15.80976966767215</v>
+        <v>32.05820576010359</v>
       </c>
       <c r="I41" t="n">
         <v>15.80976966767215</v>
       </c>
       <c r="J41" t="n">
-        <v>24.77728899937057</v>
+        <v>24.77728899937063</v>
       </c>
       <c r="K41" t="n">
-        <v>88.95579413398565</v>
+        <v>88.95579413398571</v>
       </c>
       <c r="L41" t="n">
         <v>205.4766666630392</v>
@@ -7426,7 +7426,7 @@
         <v>535.3435418940936</v>
       </c>
       <c r="O41" t="n">
-        <v>681.1610319510472</v>
+        <v>681.1610319510471</v>
       </c>
       <c r="P41" t="n">
         <v>771.1118852488386</v>
@@ -7435,28 +7435,28 @@
         <v>790.4884833836076</v>
       </c>
       <c r="R41" t="n">
-        <v>781.2253683860148</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="S41" t="n">
-        <v>621.650002416759</v>
+        <v>630.9131174143517</v>
       </c>
       <c r="T41" t="n">
-        <v>614.6646813219203</v>
+        <v>431.2948135296024</v>
       </c>
       <c r="U41" t="n">
-        <v>614.6646813219203</v>
+        <v>431.2948135296024</v>
       </c>
       <c r="V41" t="n">
-        <v>614.6646813219203</v>
+        <v>431.2948135296024</v>
       </c>
       <c r="W41" t="n">
-        <v>614.6646813219203</v>
+        <v>431.2948135296024</v>
       </c>
       <c r="X41" t="n">
-        <v>614.6646813219203</v>
+        <v>431.2948135296024</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.6646813219203</v>
+        <v>431.2948135296024</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>225.3475241845954</v>
+        <v>153.330067329752</v>
       </c>
       <c r="C42" t="n">
-        <v>225.3475241845954</v>
+        <v>153.330067329752</v>
       </c>
       <c r="D42" t="n">
-        <v>225.3475241845954</v>
+        <v>153.330067329752</v>
       </c>
       <c r="E42" t="n">
-        <v>225.3475241845954</v>
+        <v>153.330067329752</v>
       </c>
       <c r="F42" t="n">
         <v>153.330067329752</v>
@@ -7514,28 +7514,28 @@
         <v>790.4884833836076</v>
       </c>
       <c r="R42" t="n">
-        <v>790.4884833836076</v>
+        <v>764.4778614105829</v>
       </c>
       <c r="S42" t="n">
-        <v>790.4884833836076</v>
+        <v>764.4778614105829</v>
       </c>
       <c r="T42" t="n">
-        <v>593.1811650894128</v>
+        <v>567.1705431163882</v>
       </c>
       <c r="U42" t="n">
-        <v>393.5628612046635</v>
+        <v>367.5522392316389</v>
       </c>
       <c r="V42" t="n">
-        <v>393.5628612046635</v>
+        <v>352.9483712145014</v>
       </c>
       <c r="W42" t="n">
-        <v>393.5628612046635</v>
+        <v>153.330067329752</v>
       </c>
       <c r="X42" t="n">
-        <v>393.5628612046635</v>
+        <v>153.330067329752</v>
       </c>
       <c r="Y42" t="n">
-        <v>393.5628612046635</v>
+        <v>153.330067329752</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38.36095933675502</v>
+        <v>339.3255129966172</v>
       </c>
       <c r="C43" t="n">
-        <v>38.36095933675502</v>
+        <v>339.3255129966172</v>
       </c>
       <c r="D43" t="n">
-        <v>38.36095933675502</v>
+        <v>339.3255129966172</v>
       </c>
       <c r="E43" t="n">
-        <v>38.36095933675502</v>
+        <v>339.3255129966172</v>
       </c>
       <c r="F43" t="n">
-        <v>38.36095933675502</v>
+        <v>339.3255129966172</v>
       </c>
       <c r="G43" t="n">
-        <v>38.36095933675502</v>
+        <v>170.6525208645647</v>
       </c>
       <c r="H43" t="n">
-        <v>38.36095933675502</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="I43" t="n">
-        <v>38.36095933675502</v>
+        <v>15.80976966767215</v>
       </c>
       <c r="J43" t="n">
         <v>15.80976966767215</v>
@@ -7581,40 +7581,40 @@
         <v>386.1112709771859</v>
       </c>
       <c r="N43" t="n">
-        <v>581.7571706146288</v>
+        <v>507.9505407605557</v>
       </c>
       <c r="O43" t="n">
-        <v>746.6885271652268</v>
+        <v>672.8818973111537</v>
       </c>
       <c r="P43" t="n">
         <v>790.4884833836076</v>
       </c>
       <c r="Q43" t="n">
-        <v>788.4372886179937</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="R43" t="n">
-        <v>654.985111952868</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="S43" t="n">
-        <v>455.3668080681186</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="T43" t="n">
-        <v>255.7485041833692</v>
+        <v>790.4884833836076</v>
       </c>
       <c r="U43" t="n">
-        <v>56.13020029861985</v>
+        <v>590.8701794988582</v>
       </c>
       <c r="V43" t="n">
-        <v>38.36095933675502</v>
+        <v>391.2518756141088</v>
       </c>
       <c r="W43" t="n">
-        <v>38.36095933675502</v>
+        <v>391.2518756141088</v>
       </c>
       <c r="X43" t="n">
-        <v>38.36095933675502</v>
+        <v>391.2518756141088</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.36095933675502</v>
+        <v>391.2518756141088</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.0463774371709</v>
+        <v>182.3704567317667</v>
       </c>
       <c r="C44" t="n">
-        <v>215.4280735524216</v>
+        <v>182.3704567317667</v>
       </c>
       <c r="D44" t="n">
-        <v>215.4280735524216</v>
+        <v>182.3704567317667</v>
       </c>
       <c r="E44" t="n">
         <v>15.80976966767215</v>
@@ -7648,22 +7648,22 @@
         <v>15.80976966767215</v>
       </c>
       <c r="J44" t="n">
-        <v>24.77728899937063</v>
+        <v>24.77728899937075</v>
       </c>
       <c r="K44" t="n">
-        <v>88.95579413398571</v>
+        <v>88.95579413398575</v>
       </c>
       <c r="L44" t="n">
-        <v>205.4766666630392</v>
+        <v>205.4766666630393</v>
       </c>
       <c r="M44" t="n">
-        <v>366.7980259642588</v>
+        <v>366.7980259642587</v>
       </c>
       <c r="N44" t="n">
-        <v>535.3435418940936</v>
+        <v>535.3435418940937</v>
       </c>
       <c r="O44" t="n">
-        <v>681.1610319510471</v>
+        <v>681.1610319510473</v>
       </c>
       <c r="P44" t="n">
         <v>771.1118852488386</v>
@@ -7672,28 +7672,28 @@
         <v>790.4884833836076</v>
       </c>
       <c r="R44" t="n">
-        <v>790.4884833836076</v>
+        <v>781.2253683860148</v>
       </c>
       <c r="S44" t="n">
-        <v>790.4884833836076</v>
+        <v>781.2253683860148</v>
       </c>
       <c r="T44" t="n">
-        <v>790.4884833836076</v>
+        <v>781.2253683860148</v>
       </c>
       <c r="U44" t="n">
-        <v>790.4884833836076</v>
+        <v>781.2253683860148</v>
       </c>
       <c r="V44" t="n">
-        <v>614.6646813219203</v>
+        <v>781.2253683860148</v>
       </c>
       <c r="W44" t="n">
-        <v>614.6646813219203</v>
+        <v>781.2253683860148</v>
       </c>
       <c r="X44" t="n">
-        <v>614.6646813219203</v>
+        <v>581.6070645012654</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.6646813219203</v>
+        <v>381.9887606165161</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>223.0365385940408</v>
+        <v>459.1020803083225</v>
       </c>
       <c r="C45" t="n">
-        <v>48.58350931291378</v>
+        <v>459.1020803083225</v>
       </c>
       <c r="D45" t="n">
-        <v>48.58350931291378</v>
+        <v>459.1020803083225</v>
       </c>
       <c r="E45" t="n">
-        <v>15.80976966767215</v>
+        <v>299.864625302867</v>
       </c>
       <c r="F45" t="n">
-        <v>15.80976966767215</v>
+        <v>153.330067329752</v>
       </c>
       <c r="G45" t="n">
         <v>15.80976966767215</v>
@@ -7757,22 +7757,22 @@
         <v>790.4884833836076</v>
       </c>
       <c r="T45" t="n">
-        <v>790.4884833836076</v>
+        <v>593.1811650894128</v>
       </c>
       <c r="U45" t="n">
-        <v>790.4884833836076</v>
+        <v>593.1811650894128</v>
       </c>
       <c r="V45" t="n">
-        <v>790.4884833836076</v>
+        <v>459.1020803083225</v>
       </c>
       <c r="W45" t="n">
-        <v>590.8701794988582</v>
+        <v>459.1020803083225</v>
       </c>
       <c r="X45" t="n">
-        <v>590.8701794988582</v>
+        <v>459.1020803083225</v>
       </c>
       <c r="Y45" t="n">
-        <v>391.2518756141088</v>
+        <v>459.1020803083225</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>612.7163596434564</v>
+        <v>437.1137098969044</v>
       </c>
       <c r="C46" t="n">
-        <v>612.7163596434564</v>
+        <v>437.1137098969044</v>
       </c>
       <c r="D46" t="n">
-        <v>612.7163596434564</v>
+        <v>437.1137098969044</v>
       </c>
       <c r="E46" t="n">
-        <v>612.7163596434564</v>
+        <v>289.2006163145113</v>
       </c>
       <c r="F46" t="n">
-        <v>465.826412145546</v>
+        <v>142.3106688166009</v>
       </c>
       <c r="G46" t="n">
-        <v>297.1534200134935</v>
+        <v>142.3106688166009</v>
       </c>
       <c r="H46" t="n">
         <v>142.3106688166009</v>
@@ -7809,19 +7809,19 @@
         <v>15.80976966767215</v>
       </c>
       <c r="K46" t="n">
-        <v>15.80976966767215</v>
+        <v>109.3255390915781</v>
       </c>
       <c r="L46" t="n">
-        <v>191.0041927806936</v>
+        <v>123.6700076784606</v>
       </c>
       <c r="M46" t="n">
-        <v>386.1112709771859</v>
+        <v>318.7770858749529</v>
       </c>
       <c r="N46" t="n">
-        <v>581.7571706146288</v>
+        <v>507.9505407605557</v>
       </c>
       <c r="O46" t="n">
-        <v>746.6885271652268</v>
+        <v>672.8818973111537</v>
       </c>
       <c r="P46" t="n">
         <v>790.4884833836076</v>
@@ -7830,28 +7830,28 @@
         <v>788.4372886179937</v>
       </c>
       <c r="R46" t="n">
-        <v>654.985111952868</v>
+        <v>788.4372886179937</v>
       </c>
       <c r="S46" t="n">
-        <v>612.7163596434564</v>
+        <v>788.4372886179937</v>
       </c>
       <c r="T46" t="n">
-        <v>612.7163596434564</v>
+        <v>788.4372886179937</v>
       </c>
       <c r="U46" t="n">
-        <v>612.7163596434564</v>
+        <v>788.4372886179937</v>
       </c>
       <c r="V46" t="n">
-        <v>612.7163596434564</v>
+        <v>636.7320137816538</v>
       </c>
       <c r="W46" t="n">
-        <v>612.7163596434564</v>
+        <v>437.1137098969044</v>
       </c>
       <c r="X46" t="n">
-        <v>612.7163596434564</v>
+        <v>437.1137098969044</v>
       </c>
       <c r="Y46" t="n">
-        <v>612.7163596434564</v>
+        <v>437.1137098969044</v>
       </c>
     </row>
   </sheetData>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>12.89714565279502</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.89714565279441</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,16 +8850,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>100.2059433629959</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>9.497136386234907</v>
       </c>
       <c r="N13" t="n">
-        <v>171.5585403321871</v>
+        <v>171.5585403321872</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>13.6129837138289</v>
+        <v>13.61298371382888</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>12.89714565279505</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>12.89714565279479</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9087,13 +9087,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>12.28339318919194</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>171.9718379277894</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
         <v>171.5585403321872</v>
@@ -9102,7 +9102,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>60.45441194629098</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9245,13 +9245,13 @@
         <v>13.6129837138289</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>12.89714565279458</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>12.89714565279505</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9324,19 +9324,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>12.28339318919197</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>87.92255017380425</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>172.538802752117</v>
       </c>
       <c r="N19" t="n">
-        <v>171.5585403321872</v>
+        <v>171.5585403321871</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>12.89714565279496</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>12.89714565279441</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9570,13 +9570,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>171.5585403321872</v>
+        <v>171.5585403321871</v>
       </c>
       <c r="O22" t="n">
-        <v>88.48951499813226</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>60.45441194629055</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>99.14783525556834</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>70.12386577991717</v>
+        <v>70.1238657799172</v>
       </c>
       <c r="O23" t="n">
-        <v>93.08146767171655</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.066367583851886</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>13.6129837138289</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,16 +9725,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>69.69079506170036</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>36.66870846648953</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>145.5001382217908</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9880,16 +9880,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>122.6740106291914</v>
       </c>
       <c r="M26" t="n">
-        <v>76.19023336376901</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.08146767171655</v>
+        <v>46.59769040629413</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>13.6129837138289</v>
       </c>
       <c r="K27" t="n">
-        <v>69.6907950617004</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>118.7161328472307</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>63.45271384104961</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.1750858634116668</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>169.2717010354854</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>24.3120732213911</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>60.02386099674646</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>97.83291247014284</v>
       </c>
       <c r="P30" t="n">
-        <v>145.5001382217908</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.66870846648935</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,16 +10357,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>77.42099368760933</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>70.12386577991717</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>21.7268415679591</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.1750858634115957</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>13.6129837138289</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>60.02386099674646</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>36.66870846648951</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>145.5001382217908</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.666934064953985</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>26.51012936662347</v>
+        <v>13.6129837138289</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>12.89714565279456</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>60.45441194629055</v>
+        <v>60.45441194629066</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10904,7 +10904,7 @@
         <v>13.6129837138289</v>
       </c>
       <c r="K39" t="n">
-        <v>12.89714565279458</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>12.89714565279453</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,7 +10983,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>12.28339318919197</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
@@ -10992,13 +10992,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>171.5585403321871</v>
+        <v>2.546015808976147</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>60.45441194629055</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11229,13 +11229,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>171.5585403321871</v>
+        <v>97.00638896443655</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>60.45441194629055</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>12.28339318919197</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>171.5585403321871</v>
+        <v>165.0207173505304</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>60.45441194629055</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>366.6478899319733</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>331.9890892753533</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>209.2539248958095</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>215.4407721370694</v>
+        <v>413.0628929829713</v>
       </c>
       <c r="H11" t="n">
-        <v>118.913873454843</v>
+        <v>316.5359943007449</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>124.1242832441619</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>9.170483847616822</v>
       </c>
       <c r="S11" t="n">
-        <v>157.9796123095633</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.2909301245844</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1664653452634</v>
+        <v>53.54434449936139</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>130.1301376242329</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>151.618847871511</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>140.8773887965137</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.145094685459</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.6612060961061</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>48.13515719198531</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.75051575329435</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>149.4229992034958</v>
@@ -23393,13 +23393,13 @@
         <v>195.3342451112527</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8625384969122</v>
+        <v>28.2404176510102</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>35.17846630352327</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>198.2720919852641</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.986262210732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>125.2358901574395</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.32567777239204</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.030682817957725</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>132.1176548984743</v>
@@ -23472,16 +23472,16 @@
         <v>223.6527070698127</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2642266029785</v>
+        <v>88.64210575707651</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>54.515522477926</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>114.4881171134783</v>
       </c>
       <c r="X13" t="n">
-        <v>72.04093065867954</v>
+        <v>28.08753454313515</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>209.2539248958094</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>215.4407721370693</v>
+        <v>215.4407721370692</v>
       </c>
       <c r="H14" t="n">
-        <v>118.9138734548429</v>
+        <v>316.5359943007448</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>124.1242832441619</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.170483847616822</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>157.9796123095633</v>
       </c>
       <c r="T14" t="n">
-        <v>213.2909301245844</v>
+        <v>15.6688092786824</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1664653452634</v>
+        <v>86.27138515180982</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>336.2966578591449</v>
+        <v>188.6158178101516</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.1761185971126</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23594,7 +23594,7 @@
         <v>100.6612060961061</v>
       </c>
       <c r="I15" t="n">
-        <v>48.13515719198531</v>
+        <v>48.1351571919853</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.75051575329435</v>
+        <v>25.75051575329434</v>
       </c>
       <c r="S15" t="n">
         <v>149.4229992034958</v>
       </c>
       <c r="T15" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8625384969122</v>
+        <v>28.24041765101018</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>35.17846630352324</v>
       </c>
       <c r="W15" t="n">
-        <v>54.0728623150176</v>
+        <v>75.34154338519974</v>
       </c>
       <c r="X15" t="n">
-        <v>8.150864357575472</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.060574931402357</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.986262210732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I16" t="n">
-        <v>21.62771834315187</v>
+        <v>125.2358901574395</v>
       </c>
       <c r="J16" t="n">
-        <v>22.32567777239204</v>
+        <v>22.32567777239203</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.030682817957725</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>132.1176548984743</v>
@@ -23706,13 +23706,13 @@
         <v>206.5071182897707</v>
       </c>
       <c r="T16" t="n">
-        <v>223.6527070698127</v>
+        <v>26.03058622391066</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2642266029785</v>
+        <v>88.64210575707648</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>62.31262143675062</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.96253250619279</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>167.6507709251055</v>
+        <v>191.2073277299372</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>215.4407721370693</v>
+        <v>215.4407721370694</v>
       </c>
       <c r="H17" t="n">
-        <v>118.9138734548429</v>
+        <v>316.5359943007449</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>124.1242832441619</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>213.2909301245844</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1664653452634</v>
+        <v>53.5443444993615</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>130.130137624233</v>
       </c>
       <c r="W17" t="n">
-        <v>299.2996879205044</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23816,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.145094685459</v>
       </c>
       <c r="H18" t="n">
         <v>100.6612060961061</v>
       </c>
       <c r="I18" t="n">
-        <v>48.13515719198531</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>19.80947490057332</v>
+        <v>149.4229992034958</v>
       </c>
       <c r="T18" t="n">
         <v>195.3342451112527</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8625384969122</v>
+        <v>208.2370507176732</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>8.060574931402471</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79.67879225082666</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>166.986262210732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I19" t="n">
         <v>125.2358901574395</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.030682817957725</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>132.1176548984743</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>8.884997443868741</v>
+        <v>8.884997443868855</v>
       </c>
       <c r="T19" t="n">
         <v>223.6527070698127</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2642266029785</v>
+        <v>246.3470002783403</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>88.90087749068911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>28.08753454313526</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>185.1117208175786</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>167.6507709251057</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>157.0609207747811</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>399.9605778578211</v>
       </c>
       <c r="G20" t="n">
-        <v>363.1216121860627</v>
+        <v>413.0628929829713</v>
       </c>
       <c r="H20" t="n">
         <v>316.5359943007449</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>124.1242832441619</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>9.170483847616822</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>157.9796123095633</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>15.66880927868243</v>
+        <v>15.66880927868255</v>
       </c>
       <c r="U20" t="n">
         <v>251.1664653452634</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>188.6158178101516</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24065,7 +24065,7 @@
         <v>136.145094685459</v>
       </c>
       <c r="H21" t="n">
-        <v>100.6612060961061</v>
+        <v>74.5676594195906</v>
       </c>
       <c r="I21" t="n">
         <v>48.13515719198531</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.75051575329435</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>149.4229992034958</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>225.8625384969122</v>
       </c>
       <c r="V21" t="n">
-        <v>35.17846630352327</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>54.0728623150176</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>29.41954542775775</v>
+        <v>8.150864357575585</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>22.64063296678978</v>
+        <v>166.986262210732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>125.2358901574395</v>
       </c>
       <c r="J22" t="n">
         <v>22.32567777239204</v>
@@ -24177,16 +24177,16 @@
         <v>132.1176548984743</v>
       </c>
       <c r="S22" t="n">
-        <v>206.5071182897707</v>
+        <v>8.884997443868855</v>
       </c>
       <c r="T22" t="n">
-        <v>223.6527070698127</v>
+        <v>26.0305862239108</v>
       </c>
       <c r="U22" t="n">
         <v>286.2642266029785</v>
       </c>
       <c r="V22" t="n">
-        <v>54.515522477926</v>
+        <v>78.07207928275761</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>20.9625325061929</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>114.3111799520436</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24226,7 +24226,7 @@
         <v>316.5359943007449</v>
       </c>
       <c r="I23" t="n">
-        <v>124.1242832441619</v>
+        <v>43.30342825193279</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>9.170483847616822</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>213.2909301245844</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>10.79460367662404</v>
       </c>
       <c r="V23" t="n">
-        <v>87.38039680149555</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.8691070487737</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>325.1616610779117</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>27.024076257231</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.145094685459</v>
+        <v>91.95261526195668</v>
       </c>
       <c r="H24" t="n">
         <v>100.6612060961061</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>11.32312149228025</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>103.7775865609837</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.986262210732</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>2.030682817957725</v>
       </c>
       <c r="R25" t="n">
-        <v>112.2167656496387</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>206.5071182897707</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>45.89236493433916</v>
+        <v>286.2642266029785</v>
       </c>
       <c r="V25" t="n">
-        <v>11.76578165518865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>46.15113666795165</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>328.9939182153065</v>
       </c>
       <c r="C26" t="n">
-        <v>124.9010301023682</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>114.3111799520436</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,7 +24460,7 @@
         <v>413.0628929829713</v>
       </c>
       <c r="H26" t="n">
-        <v>76.16413263210555</v>
+        <v>316.5359943007449</v>
       </c>
       <c r="I26" t="n">
         <v>124.1242832441619</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>9.170483847616822</v>
       </c>
       <c r="S26" t="n">
-        <v>157.9796123095633</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>213.2909301245844</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1664653452634</v>
+        <v>10.79460367662404</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>146.6919168072925</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>150.2520237768011</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.75051575329435</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>149.4229992034958</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8625384969122</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>11.32312149228025</v>
       </c>
       <c r="X27" t="n">
-        <v>167.3070968660515</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>79.59207168691255</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>125.2358901574395</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>22.32567777239204</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>2.030682817957725</v>
       </c>
       <c r="R28" t="n">
-        <v>58.02421612874639</v>
+        <v>132.1176548984743</v>
       </c>
       <c r="S28" t="n">
-        <v>206.5071182897707</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.6527070698127</v>
       </c>
       <c r="U28" t="n">
         <v>286.2642266029785</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>142.3619799948412</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.9010301023682</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>166.5041840730721</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>172.6910313143319</v>
+        <v>413.0628929829713</v>
       </c>
       <c r="H29" t="n">
         <v>316.5359943007449</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>9.170483847616822</v>
       </c>
       <c r="S29" t="n">
         <v>157.9796123095633</v>
       </c>
       <c r="T29" t="n">
-        <v>10.7418782144639</v>
+        <v>213.2909301245844</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1664653452634</v>
+        <v>39.446929587526</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>164.2565511579606</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.75051575329435</v>
       </c>
       <c r="S30" t="n">
         <v>149.4229992034958</v>
@@ -24815,19 +24815,19 @@
         <v>195.3342451112527</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8625384969122</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>11.32312149228025</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>49.34600132948231</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>101.9612479874595</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24894,7 +24894,7 @@
         <v>223.6527070698127</v>
       </c>
       <c r="U31" t="n">
-        <v>278.4671379177337</v>
+        <v>45.89236493433916</v>
       </c>
       <c r="V31" t="n">
         <v>11.76578165518865</v>
@@ -24903,10 +24903,10 @@
         <v>46.15113666795165</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>166.5041840730721</v>
+        <v>204.3269938315909</v>
       </c>
       <c r="G32" t="n">
         <v>413.0628929829713</v>
       </c>
       <c r="H32" t="n">
-        <v>316.5359943007449</v>
+        <v>76.16413263210555</v>
       </c>
       <c r="I32" t="n">
         <v>124.1242832441619</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>9.170483847616822</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>157.9796123095633</v>
       </c>
       <c r="T32" t="n">
-        <v>1.571394366847045</v>
+        <v>213.2909301245844</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1664653452634</v>
+        <v>10.79460367662404</v>
       </c>
       <c r="V32" t="n">
-        <v>87.38039680149555</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25004,10 +25004,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>57.19833311522794</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.145094685459</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.75051575329435</v>
       </c>
       <c r="S33" t="n">
         <v>149.4229992034958</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>11.32312149228025</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>117.0420641481827</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.986262210732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I34" t="n">
-        <v>122.4293428937379</v>
+        <v>125.2358901574395</v>
       </c>
       <c r="J34" t="n">
         <v>22.32567777239204</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.030682817957725</v>
       </c>
       <c r="R34" t="n">
         <v>132.1176548984743</v>
@@ -25131,7 +25131,7 @@
         <v>223.6527070698127</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2642266029785</v>
+        <v>45.89236493433916</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>78.09699247462217</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>208.6682776224102</v>
+        <v>185.1117208175787</v>
       </c>
       <c r="C35" t="n">
-        <v>167.6507709251057</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>157.0609207747811</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>184.3082492263599</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>9.170483847616822</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>157.9796123095633</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>204.8360204850155</v>
       </c>
       <c r="Y35" t="n">
         <v>188.6158178101517</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.75051575329435</v>
+        <v>7.042156432975737</v>
       </c>
       <c r="S36" t="n">
         <v>149.4229992034958</v>
       </c>
       <c r="T36" t="n">
-        <v>187.8018647200497</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>28.24041765101032</v>
+        <v>225.8625384969122</v>
       </c>
       <c r="V36" t="n">
-        <v>35.17846630352338</v>
+        <v>35.17846630352335</v>
       </c>
       <c r="W36" t="n">
-        <v>54.07286231501772</v>
+        <v>54.07286231501769</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25314,28 +25314,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>161.0659641032203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.986262210732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I37" t="n">
         <v>125.2358901574395</v>
       </c>
       <c r="J37" t="n">
-        <v>22.32567777239204</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>223.6527070698127</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2642266029785</v>
+        <v>283.1398133525125</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>54.51552247792608</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>88.90087749068908</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>28.08753454313523</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,10 +25399,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>184.3082492263599</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>209.2539248958095</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.0628929829713</v>
@@ -25411,7 +25411,7 @@
         <v>316.5359943007449</v>
       </c>
       <c r="I38" t="n">
-        <v>124.1242832441619</v>
+        <v>117.2088153602716</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>9.170483847616822</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>157.9796123095633</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.2909301245844</v>
+        <v>15.66880927868252</v>
       </c>
       <c r="U38" t="n">
-        <v>53.5443444993615</v>
+        <v>53.54434449936147</v>
       </c>
       <c r="V38" t="n">
-        <v>153.6866944290645</v>
+        <v>130.130137624233</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25520,25 +25520,25 @@
         <v>25.75051575329435</v>
       </c>
       <c r="S39" t="n">
-        <v>149.4229992034958</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>28.24041765101032</v>
+        <v>28.24041765101029</v>
       </c>
       <c r="V39" t="n">
-        <v>35.17846630352338</v>
+        <v>35.17846630352335</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>224.7645425886958</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>195.8624396514522</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>109.9971292632765</v>
       </c>
       <c r="G40" t="n">
-        <v>166.986262210732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.2943236849236</v>
@@ -25593,22 +25593,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.030682817957725</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>132.1176548984743</v>
       </c>
       <c r="S40" t="n">
-        <v>8.884997443868855</v>
+        <v>8.884997443868826</v>
       </c>
       <c r="T40" t="n">
-        <v>26.0305862239108</v>
+        <v>26.03058622391077</v>
       </c>
       <c r="U40" t="n">
-        <v>112.1986625619081</v>
+        <v>286.2642266029785</v>
       </c>
       <c r="V40" t="n">
-        <v>54.51552247792611</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>185.1117208175787</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,16 +25639,16 @@
         <v>184.3082492263599</v>
       </c>
       <c r="F41" t="n">
-        <v>209.2539248958095</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>215.4407721370694</v>
+        <v>413.0628929829713</v>
       </c>
       <c r="H41" t="n">
         <v>316.5359943007449</v>
       </c>
       <c r="I41" t="n">
-        <v>124.1242832441619</v>
+        <v>108.0383315126548</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>9.170483847616822</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.3754622406941</v>
+        <v>15.66880927868255</v>
       </c>
       <c r="U41" t="n">
         <v>251.1664653452634</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25718,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>73.77193010708889</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.75051575329435</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>149.4229992034958</v>
@@ -25766,10 +25766,10 @@
         <v>28.24041765101032</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>218.3427578124592</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>54.07286231501772</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>128.4248811906206</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.986262210732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>125.2358901574395</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>22.32567777239204</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2.030682817957725</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>132.1176548984743</v>
       </c>
       <c r="S43" t="n">
-        <v>8.884997443868855</v>
+        <v>206.5071182897707</v>
       </c>
       <c r="T43" t="n">
-        <v>26.0305862239108</v>
+        <v>223.6527070698127</v>
       </c>
       <c r="U43" t="n">
         <v>88.64210575707662</v>
       </c>
       <c r="V43" t="n">
-        <v>234.5460947715818</v>
+        <v>54.51552247792611</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,13 +25867,13 @@
         <v>185.1117208175787</v>
       </c>
       <c r="C44" t="n">
-        <v>167.6507709251057</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>184.3082492263599</v>
+        <v>217.0352898788082</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>9.170483847616822</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>157.9796123095633</v>
@@ -25924,16 +25924,16 @@
         <v>251.1664653452634</v>
       </c>
       <c r="V44" t="n">
-        <v>153.6866944290645</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>172.1089798325671</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>188.6158178101517</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>125.1990782066117</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.145094685459</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>100.6612060961061</v>
@@ -25997,22 +25997,22 @@
         <v>149.4229992034958</v>
       </c>
       <c r="T45" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8625384969122</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>100.0622932161459</v>
       </c>
       <c r="W45" t="n">
-        <v>54.07286231501772</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.060574931402471</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.986262210732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>132.1176548984743</v>
       </c>
       <c r="S46" t="n">
-        <v>164.6610535034532</v>
+        <v>206.5071182897707</v>
       </c>
       <c r="T46" t="n">
         <v>223.6527070698127</v>
@@ -26082,10 +26082,10 @@
         <v>286.2642266029785</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>101.9494212358515</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>88.90087749068911</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>477386.7649885814</v>
+        <v>477386.7649885813</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>477386.7649885812</v>
+        <v>477386.7649885814</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>477386.7649885812</v>
+        <v>477386.7649885813</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440894.1298120315</v>
+        <v>440894.1298120316</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440894.1298120315</v>
+        <v>440894.1298120314</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>440894.1298120314</v>
+        <v>440894.1298120313</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>440894.1298120314</v>
+        <v>440894.1298120315</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>471083.8947622971</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.8947622969</v>
       </c>
       <c r="D2" t="n">
         <v>471083.894762297</v>
@@ -26331,16 +26331,16 @@
         <v>211136.5562464352</v>
       </c>
       <c r="H2" t="n">
-        <v>211136.5562464351</v>
+        <v>211136.5562464352</v>
       </c>
       <c r="I2" t="n">
-        <v>225064.1293982557</v>
+        <v>225064.1293982558</v>
       </c>
       <c r="J2" t="n">
-        <v>225064.1293982557</v>
+        <v>225064.1293982558</v>
       </c>
       <c r="K2" t="n">
-        <v>225064.1293982557</v>
+        <v>225064.1293982558</v>
       </c>
       <c r="L2" t="n">
         <v>225064.1293982557</v>
@@ -26355,7 +26355,7 @@
         <v>211136.5562464352</v>
       </c>
       <c r="P2" t="n">
-        <v>211136.5562464352</v>
+        <v>211136.5562464351</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11368.05382932314</v>
+        <v>11368.05382932318</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>38594.81659129275</v>
+        <v>38594.81659129272</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
+        <v>9612.535369095829</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9612.535369095825</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9612.535369095818</v>
+      </c>
+      <c r="H4" t="n">
         <v>9612.535369095816</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9612.535369095829</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9612.535369095829</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9612.535369095827</v>
       </c>
       <c r="I4" t="n">
         <v>17681.54808575639</v>
       </c>
       <c r="J4" t="n">
-        <v>17681.54808575639</v>
+        <v>17681.54808575638</v>
       </c>
       <c r="K4" t="n">
         <v>17681.54808575638</v>
       </c>
       <c r="L4" t="n">
-        <v>17681.54808575639</v>
+        <v>17681.54808575638</v>
       </c>
       <c r="M4" t="n">
         <v>9612.535369095818</v>
@@ -26481,7 +26481,7 @@
         <v>24161.54188422196</v>
       </c>
       <c r="F5" t="n">
-        <v>24161.54188422196</v>
+        <v>24161.54188422197</v>
       </c>
       <c r="G5" t="n">
         <v>24161.54188422196</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22683.8961493382</v>
+        <v>22639.76037065708</v>
       </c>
       <c r="C6" t="n">
-        <v>22683.89614933814</v>
+        <v>22639.76037065684</v>
       </c>
       <c r="D6" t="n">
-        <v>22683.89614933808</v>
+        <v>22639.76037065702</v>
       </c>
       <c r="E6" t="n">
-        <v>-329268.2205024616</v>
+        <v>-340614.4144774846</v>
       </c>
       <c r="F6" t="n">
-        <v>177362.4789931174</v>
+        <v>166016.2850180944</v>
       </c>
       <c r="G6" t="n">
-        <v>177362.4789931174</v>
+        <v>166016.2850180945</v>
       </c>
       <c r="H6" t="n">
-        <v>177362.4789931173</v>
+        <v>166016.2850180945</v>
       </c>
       <c r="I6" t="n">
-        <v>169253.8013569318</v>
+        <v>158513.1540406837</v>
       </c>
       <c r="J6" t="n">
-        <v>180621.855186255</v>
+        <v>169881.2078700068</v>
       </c>
       <c r="K6" t="n">
-        <v>180621.855186255</v>
+        <v>169881.2078700069</v>
       </c>
       <c r="L6" t="n">
-        <v>180621.855186255</v>
+        <v>169881.2078700068</v>
       </c>
       <c r="M6" t="n">
-        <v>138767.6624018246</v>
+        <v>127421.4684268017</v>
       </c>
       <c r="N6" t="n">
-        <v>177362.4789931174</v>
+        <v>166016.2850180945</v>
       </c>
       <c r="O6" t="n">
-        <v>177362.4789931174</v>
+        <v>166016.2850180944</v>
       </c>
       <c r="P6" t="n">
-        <v>177362.4789931174</v>
+        <v>166016.2850180944</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>557.1613273757395</v>
       </c>
       <c r="F3" t="n">
-        <v>557.1613273757395</v>
+        <v>557.1613273757396</v>
       </c>
       <c r="G3" t="n">
         <v>557.1613273757395</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>197.6221208459019</v>
+        <v>197.622120845902</v>
       </c>
       <c r="F4" t="n">
         <v>197.622120845902</v>
       </c>
       <c r="G4" t="n">
-        <v>197.622120845902</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="H4" t="n">
-        <v>197.622120845902</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="I4" t="n">
         <v>240.3718616686394</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>197.6221208459019</v>
+        <v>197.622120845902</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>42.74974082273735</v>
+        <v>42.7497408227375</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>154.8723800231648</v>
+        <v>154.8723800231646</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>197.6221208459019</v>
+        <v>197.622120845902</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,31 +31995,31 @@
         <v>22.93880781502227</v>
       </c>
       <c r="I14" t="n">
-        <v>86.35160632624402</v>
+        <v>86.35160632624404</v>
       </c>
       <c r="J14" t="n">
         <v>190.1040048617354</v>
       </c>
       <c r="K14" t="n">
-        <v>284.916623908228</v>
+        <v>284.9166239082281</v>
       </c>
       <c r="L14" t="n">
-        <v>353.4642660094352</v>
+        <v>353.4642660094353</v>
       </c>
       <c r="M14" t="n">
         <v>393.2971012083028</v>
       </c>
       <c r="N14" t="n">
-        <v>399.6610594853131</v>
+        <v>399.6610594853132</v>
       </c>
       <c r="O14" t="n">
-        <v>377.3886054186095</v>
+        <v>377.3886054186096</v>
       </c>
       <c r="P14" t="n">
-        <v>322.0924435308163</v>
+        <v>322.0924435308164</v>
       </c>
       <c r="Q14" t="n">
-        <v>241.878011222701</v>
+        <v>241.8780112227011</v>
       </c>
       <c r="R14" t="n">
         <v>140.6986340935329</v>
@@ -32028,7 +32028,7 @@
         <v>51.04045727668208</v>
       </c>
       <c r="T14" t="n">
-        <v>9.80491943954693</v>
+        <v>9.804919439546932</v>
       </c>
       <c r="U14" t="n">
         <v>0.179187562573102</v>
@@ -32071,46 +32071,46 @@
         <v>1.198422477751591</v>
       </c>
       <c r="H15" t="n">
-        <v>11.57423814039036</v>
+        <v>11.57423814039037</v>
       </c>
       <c r="I15" t="n">
-        <v>41.26147565942977</v>
+        <v>41.26147565942978</v>
       </c>
       <c r="J15" t="n">
         <v>113.2246429528378</v>
       </c>
       <c r="K15" t="n">
-        <v>193.5189489621943</v>
+        <v>193.5189489621944</v>
       </c>
       <c r="L15" t="n">
         <v>260.2101086012829</v>
       </c>
       <c r="M15" t="n">
-        <v>303.6529234197779</v>
+        <v>303.652923419778</v>
       </c>
       <c r="N15" t="n">
-        <v>311.6897127552262</v>
+        <v>311.6897127552263</v>
       </c>
       <c r="O15" t="n">
-        <v>285.1351936429409</v>
+        <v>285.135193642941</v>
       </c>
       <c r="P15" t="n">
         <v>228.8461308611788</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.977578037203</v>
+        <v>152.9775780372031</v>
       </c>
       <c r="R15" t="n">
-        <v>74.40731839934878</v>
+        <v>74.4073183993488</v>
       </c>
       <c r="S15" t="n">
         <v>22.26017190034203</v>
       </c>
       <c r="T15" t="n">
-        <v>4.83048358356891</v>
+        <v>4.830483583568911</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07884358406260468</v>
+        <v>0.07884358406260469</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,13 +32150,13 @@
         <v>1.004717147726743</v>
       </c>
       <c r="H16" t="n">
-        <v>8.932848822515959</v>
+        <v>8.932848822515961</v>
       </c>
       <c r="I16" t="n">
         <v>30.2145847698188</v>
       </c>
       <c r="J16" t="n">
-        <v>71.03350234428073</v>
+        <v>71.03350234428075</v>
       </c>
       <c r="K16" t="n">
         <v>116.7298649813434</v>
@@ -32177,7 +32177,7 @@
         <v>121.5159721214235</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.13136043373666</v>
+        <v>84.13136043373667</v>
       </c>
       <c r="R16" t="n">
         <v>45.17573647869519</v>
@@ -32186,10 +32186,10 @@
         <v>17.50947974720151</v>
       </c>
       <c r="T16" t="n">
-        <v>4.292882358468811</v>
+        <v>4.292882358468812</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05480275351236787</v>
+        <v>0.05480275351236789</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>180.3480006718929</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5389491984965</v>
+        <v>155.4360948512915</v>
       </c>
       <c r="P12" t="n">
         <v>94.87172344684851</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.89294960397594</v>
+        <v>12.99580395118153</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,16 +35570,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>87.92255017380391</v>
+        <v>94.46037315546056</v>
       </c>
       <c r="L13" t="n">
-        <v>14.48936220897227</v>
+        <v>176.9640637505267</v>
       </c>
       <c r="M13" t="n">
-        <v>197.0778567641336</v>
+        <v>28.06533224092286</v>
       </c>
       <c r="N13" t="n">
-        <v>197.6221208459019</v>
+        <v>197.622120845902</v>
       </c>
       <c r="O13" t="n">
         <v>166.5973298490889</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.05810033504909</v>
+        <v>9.058100335049119</v>
       </c>
       <c r="K14" t="n">
-        <v>64.82677286324747</v>
+        <v>64.82677286324753</v>
       </c>
       <c r="L14" t="n">
         <v>117.697851039448</v>
       </c>
       <c r="M14" t="n">
-        <v>162.95086798103</v>
+        <v>162.9508679810301</v>
       </c>
       <c r="N14" t="n">
-        <v>170.2479958887222</v>
+        <v>170.2479958887223</v>
       </c>
       <c r="O14" t="n">
-        <v>147.2903939969228</v>
+        <v>147.2903939969229</v>
       </c>
       <c r="P14" t="n">
-        <v>90.85944777554676</v>
+        <v>90.85944777554681</v>
       </c>
       <c r="Q14" t="n">
-        <v>19.57232134825153</v>
+        <v>19.57232134825159</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>55.67750998783535</v>
+        <v>55.67750998783541</v>
       </c>
       <c r="L15" t="n">
         <v>121.6557288214087</v>
       </c>
       <c r="M15" t="n">
-        <v>174.4160351505547</v>
+        <v>161.5188894977597</v>
       </c>
       <c r="N15" t="n">
         <v>180.3480006718929</v>
@@ -35743,10 +35743,10 @@
         <v>142.5389491984965</v>
       </c>
       <c r="P15" t="n">
-        <v>94.87172344684851</v>
+        <v>107.7688690996434</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.99580395118153</v>
+        <v>12.99580395118156</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>94.46037315546056</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>14.48936220897227</v>
+        <v>176.9640637505267</v>
       </c>
       <c r="M16" t="n">
-        <v>190.5400337824773</v>
+        <v>197.0778567641336</v>
       </c>
       <c r="N16" t="n">
         <v>197.622120845902</v>
@@ -35822,7 +35822,7 @@
         <v>166.5973298490889</v>
       </c>
       <c r="P16" t="n">
-        <v>118.794531386317</v>
+        <v>44.2423800185669</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>55.67750998783535</v>
+        <v>68.57465564062993</v>
       </c>
       <c r="L18" t="n">
         <v>121.6557288214087</v>
       </c>
       <c r="M18" t="n">
-        <v>174.4160351505547</v>
+        <v>161.5188894977596</v>
       </c>
       <c r="N18" t="n">
         <v>180.3480006718929</v>
@@ -36044,19 +36044,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.46037315546056</v>
       </c>
       <c r="L19" t="n">
-        <v>102.4119123827765</v>
+        <v>176.9640637505267</v>
       </c>
       <c r="M19" t="n">
-        <v>197.0778567641336</v>
+        <v>191.106998606805</v>
       </c>
       <c r="N19" t="n">
-        <v>197.622120845902</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="O19" t="n">
-        <v>166.5973298490889</v>
+        <v>3.555663483206388</v>
       </c>
       <c r="P19" t="n">
         <v>118.794531386317</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>9.05810033504909</v>
+        <v>9.058100335048834</v>
       </c>
       <c r="K20" t="n">
         <v>64.82677286324747</v>
@@ -36217,10 +36217,10 @@
         <v>142.5389491984965</v>
       </c>
       <c r="P21" t="n">
-        <v>107.7688690996435</v>
+        <v>94.87172344684851</v>
       </c>
       <c r="Q21" t="n">
-        <v>12.99580395118153</v>
+        <v>25.89294960397594</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36290,13 +36290,13 @@
         <v>197.0778567641336</v>
       </c>
       <c r="N22" t="n">
-        <v>197.622120845902</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="O22" t="n">
-        <v>92.04517848133865</v>
+        <v>166.5973298490889</v>
       </c>
       <c r="P22" t="n">
-        <v>118.794531386317</v>
+        <v>44.24238001856644</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>9.05810033504909</v>
       </c>
       <c r="K23" t="n">
-        <v>64.82677286324747</v>
+        <v>163.9746081188158</v>
       </c>
       <c r="L23" t="n">
         <v>117.697851039448</v>
@@ -36372,13 +36372,13 @@
         <v>240.3718616686394</v>
       </c>
       <c r="O23" t="n">
-        <v>240.3718616686394</v>
+        <v>147.2903939969228</v>
       </c>
       <c r="P23" t="n">
         <v>90.85944777554676</v>
       </c>
       <c r="Q23" t="n">
-        <v>25.63868893210342</v>
+        <v>19.57232134825153</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>112.4780516265799</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>55.67750998783535</v>
@@ -36445,16 +36445,16 @@
         <v>121.6557288214087</v>
       </c>
       <c r="M24" t="n">
-        <v>231.20968455946</v>
+        <v>161.5188894977596</v>
       </c>
       <c r="N24" t="n">
-        <v>180.3480006718929</v>
+        <v>217.0167091383824</v>
       </c>
       <c r="O24" t="n">
         <v>142.5389491984965</v>
       </c>
       <c r="P24" t="n">
-        <v>94.87172344684851</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="Q24" t="n">
         <v>12.99580395118153</v>
@@ -36600,16 +36600,16 @@
         <v>64.82677286324747</v>
       </c>
       <c r="L26" t="n">
-        <v>117.697851039448</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="M26" t="n">
-        <v>239.141101344799</v>
+        <v>162.95086798103</v>
       </c>
       <c r="N26" t="n">
         <v>170.2479958887222</v>
       </c>
       <c r="O26" t="n">
-        <v>240.3718616686394</v>
+        <v>193.8880844032169</v>
       </c>
       <c r="P26" t="n">
         <v>90.85944777554676</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>112.4780516265799</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>125.3683050495357</v>
+        <v>55.67750998783535</v>
       </c>
       <c r="L27" t="n">
-        <v>121.6557288214087</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="M27" t="n">
-        <v>161.5188894977596</v>
+        <v>224.9716033388092</v>
       </c>
       <c r="N27" t="n">
         <v>180.3480006718929</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>94.46037315546052</v>
+        <v>94.46037315546056</v>
       </c>
       <c r="L28" t="n">
         <v>176.9640637505267</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9.05810033504909</v>
+        <v>178.1547155071229</v>
       </c>
       <c r="K29" t="n">
-        <v>64.82677286324747</v>
+        <v>65.00185872665914</v>
       </c>
       <c r="L29" t="n">
         <v>117.697851039448</v>
@@ -36852,7 +36852,7 @@
         <v>90.85944777554676</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.8440223837369</v>
+        <v>19.57232134825153</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>121.6557288214087</v>
       </c>
       <c r="M30" t="n">
-        <v>161.5188894977596</v>
+        <v>185.8309627191507</v>
       </c>
       <c r="N30" t="n">
-        <v>180.3480006718929</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5389491984965</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="P30" t="n">
-        <v>240.3718616686394</v>
+        <v>94.87172344684851</v>
       </c>
       <c r="Q30" t="n">
-        <v>49.66451241767088</v>
+        <v>12.99580395118153</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>9.05810033504909</v>
+        <v>178.1547155071229</v>
       </c>
       <c r="K32" t="n">
         <v>64.82677286324747</v>
@@ -37077,16 +37077,16 @@
         <v>117.697851039448</v>
       </c>
       <c r="M32" t="n">
-        <v>240.3718616686394</v>
+        <v>162.95086798103</v>
       </c>
       <c r="N32" t="n">
-        <v>240.3718616686394</v>
+        <v>170.2479958887222</v>
       </c>
       <c r="O32" t="n">
-        <v>169.0172355648819</v>
+        <v>147.2903939969228</v>
       </c>
       <c r="P32" t="n">
-        <v>90.85944777554676</v>
+        <v>91.03453363895835</v>
       </c>
       <c r="Q32" t="n">
         <v>19.57232134825153</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>112.4780516265799</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>55.67750998783535</v>
@@ -37159,16 +37159,16 @@
         <v>161.5188894977596</v>
       </c>
       <c r="N33" t="n">
+        <v>180.3480006718929</v>
+      </c>
+      <c r="O33" t="n">
+        <v>179.207657664986</v>
+      </c>
+      <c r="P33" t="n">
         <v>240.3718616686394</v>
       </c>
-      <c r="O33" t="n">
-        <v>142.5389491984965</v>
-      </c>
-      <c r="P33" t="n">
-        <v>94.87172344684851</v>
-      </c>
       <c r="Q33" t="n">
-        <v>22.66273801613551</v>
+        <v>12.99580395118153</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>90.85944777554676</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.57232134825127</v>
+        <v>19.57232134825138</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>12.89714565279458</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>55.67750998783535</v>
@@ -37399,7 +37399,7 @@
         <v>180.3480006718929</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5389491984965</v>
+        <v>155.436094851291</v>
       </c>
       <c r="P36" t="n">
         <v>94.87172344684851</v>
@@ -37481,7 +37481,7 @@
         <v>166.5973298490889</v>
       </c>
       <c r="P37" t="n">
-        <v>44.24238001856644</v>
+        <v>44.24238001856655</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>162.95086798103</v>
       </c>
       <c r="N38" t="n">
-        <v>170.2479958887222</v>
+        <v>170.2479958887221</v>
       </c>
       <c r="O38" t="n">
         <v>147.2903939969228</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>68.57465564062993</v>
+        <v>55.67750998783535</v>
       </c>
       <c r="L39" t="n">
         <v>121.6557288214087</v>
@@ -37642,7 +37642,7 @@
         <v>94.87172344684851</v>
       </c>
       <c r="Q39" t="n">
-        <v>12.99580395118153</v>
+        <v>25.89294960397606</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.46037315546056</v>
       </c>
       <c r="L40" t="n">
         <v>176.9640637505267</v>
@@ -37712,13 +37712,13 @@
         <v>197.0778567641336</v>
       </c>
       <c r="N40" t="n">
-        <v>197.6221208459019</v>
+        <v>28.60959632269096</v>
       </c>
       <c r="O40" t="n">
         <v>166.5973298490889</v>
       </c>
       <c r="P40" t="n">
-        <v>44.24238001856644</v>
+        <v>118.794531386317</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37949,13 +37949,13 @@
         <v>197.0778567641336</v>
       </c>
       <c r="N43" t="n">
-        <v>197.6221208459019</v>
+        <v>123.0699694781514</v>
       </c>
       <c r="O43" t="n">
         <v>166.5973298490889</v>
       </c>
       <c r="P43" t="n">
-        <v>44.24238001856644</v>
+        <v>118.794531386317</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>117.697851039448</v>
       </c>
       <c r="M44" t="n">
-        <v>162.95086798103</v>
+        <v>162.9508679810298</v>
       </c>
       <c r="N44" t="n">
         <v>170.2479958887222</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.46037315546056</v>
       </c>
       <c r="L46" t="n">
-        <v>176.9640637505267</v>
+        <v>14.48936220897227</v>
       </c>
       <c r="M46" t="n">
         <v>197.0778567641336</v>
       </c>
       <c r="N46" t="n">
-        <v>197.6221208459019</v>
+        <v>191.0842978642452</v>
       </c>
       <c r="O46" t="n">
         <v>166.5973298490889</v>
       </c>
       <c r="P46" t="n">
-        <v>44.24238001856644</v>
+        <v>118.794531386317</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
